--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251462</v>
+        <v>251416</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>90.23188405797102</v>
+        <v>162.6376811594203</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-05-12 10:17:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6226</v>
+        <v>11222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -567,6 +567,9 @@
       <c r="M2" t="n">
         <v>70</v>
       </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -575,7 +578,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -587,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251846</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,30 +601,30 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>162.6376811594203</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-05-12 10:17:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:13</t>
+          <t>2025-05-12 10:42:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:13</t>
+          <t>2025-05-12 10:42:38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:52</t>
+          <t>2025-05-12 13:27:44</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>11392</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,9 +642,6 @@
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39755</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
@@ -662,7 +662,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251580</v>
+        <v>251465</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,33 +670,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>103.6666666666667</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:52</t>
+          <t>2025-05-12 13:27:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:52</t>
+          <t>2025-05-12 13:52:44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:52</t>
+          <t>2025-05-12 13:52:44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:32</t>
+          <t>2025-05-13 07:22:58</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -734,7 +734,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251463</v>
+        <v>251466</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>100.9710144927536</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:32</t>
+          <t>2025-05-13 07:22:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:32</t>
+          <t>2025-05-13 07:52:58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:32</t>
+          <t>2025-05-13 07:52:58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:30</t>
+          <t>2025-05-13 09:13:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6967</v>
+        <v>5567</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251809</v>
+        <v>244204</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,33 +814,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>125.8115942028985</v>
+        <v>50.31884057971015</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:30</t>
+          <t>2025-05-13 09:13:39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:30</t>
+          <t>2025-05-13 09:43:39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:30</t>
+          <t>2025-05-13 09:43:39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:19</t>
+          <t>2025-05-13 10:33:58</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8681</v>
+        <v>3472</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -893,22 +893,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:19</t>
+          <t>2025-05-13 10:33:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:19</t>
+          <t>2025-05-13 11:03:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:19</t>
+          <t>2025-05-13 11:03:58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 11:36:38</t>
+          <t>2025-05-14 11:02:17</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -950,41 +950,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>251284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>16340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,17 +993,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1011,57 +1011,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251251</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>288.3636363636364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 13:10:05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 13:10:05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 09:58:27</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>15860</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1070,75 +1070,70 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251520</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>147.5245901639344</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 09:58:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 10:30:57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 10:30:57</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-13 07:28:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>16340</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1147,75 +1142,70 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251424</v>
+        <v>245275</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>44.5</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3934426229508</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-13 07:28:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-13 08:12:32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-13 08:12:32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:26</t>
+          <t>2025-05-14 07:34:15</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9662</v>
+        <v>24294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1224,11 +1214,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1241,7 +1231,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1253,67 +1243,74 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>244355</v>
+        <v>251706</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.65573770491804</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:26</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:26</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:26</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:05</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4310</v>
+        <v>3200</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1325,41 +1322,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251505</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>233.6885245901639</v>
+        <v>82.765625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:05</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:40:05</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:40:05</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>14255</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1372,66 +1369,71 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251251</v>
+        <v>251391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>260</v>
+        <v>91.640625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:47</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:47</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:47</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>15860</v>
+        <v>5865</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1440,70 +1442,75 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251246</v>
+        <v>251395</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>196.7540983606557</v>
+        <v>35.34375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:47</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:47</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:47</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:32</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12002</v>
+        <v>2262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1512,7 +1519,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1521,61 +1528,66 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251252</v>
+        <v>251371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>247.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:32</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:32</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:32</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:48</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>15083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1584,70 +1596,77 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244023</v>
+        <v>250641</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>16.34426229508197</v>
+        <v>79.9375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:48</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:48</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:48</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:08</t>
+          <t>2025-05-07 13:20:41</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>997</v>
+        <v>5116</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1673,7 +1692,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1685,41 +1704,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251061</v>
+        <v>251396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>393.3934426229508</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:08</t>
+          <t>2025-05-07 13:20:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:08</t>
+          <t>2025-05-07 13:35:41</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:08</t>
+          <t>2025-05-07 13:35:41</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:32</t>
+          <t>2025-05-07 14:11:01</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>23997</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1728,7 +1747,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1737,61 +1756,66 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-0.5909939236111111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251260</v>
+        <v>251548</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>153.5901639344262</v>
+        <v>206.90625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:32</t>
+          <t>2025-05-07 14:11:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:32</t>
+          <t>2025-05-07 14:30:01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:32</t>
+          <t>2025-05-07 14:30:01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 14:46:07</t>
+          <t>2025-05-08 09:56:56</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9369</v>
+        <v>13242</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1800,70 +1824,75 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-1.414539930555555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251795</v>
+        <v>250923</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>109.46875</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 14:46:07</t>
+          <t>2025-05-08 09:56:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-15 07:06:07</t>
+          <t>2025-05-08 10:28:56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-15 07:06:07</t>
+          <t>2025-05-08 10:28:56</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-15 12:13:19</t>
+          <t>2025-05-08 12:18:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>7006</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1872,70 +1901,75 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-1.512782118055556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251374</v>
+        <v>251225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-15 12:13:19</t>
+          <t>2025-05-08 12:18:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-15 12:38:19</t>
+          <t>2025-05-08 12:35:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-15 12:38:19</t>
+          <t>2025-05-08 12:35:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-16 12:06:34</t>
+          <t>2025-05-08 12:35:24</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1944,70 +1978,75 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-0.5245876736111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251346</v>
+        <v>251227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>63.26229508196721</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-16 12:06:34</t>
+          <t>2025-05-08 12:35:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-16 12:31:34</t>
+          <t>2025-05-08 12:50:24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-16 12:31:34</t>
+          <t>2025-05-08 12:50:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-16 13:34:50</t>
+          <t>2025-05-08 12:50:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3859</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2016,70 +2055,75 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.535004340277778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251259</v>
+        <v>251268</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>81.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-16 13:34:50</t>
+          <t>2025-05-08 12:50:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-16 13:59:50</t>
+          <t>2025-05-08 13:05:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-16 13:59:50</t>
+          <t>2025-05-08 13:05:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-19 07:21:48</t>
+          <t>2025-05-08 13:05:24</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2088,24 +2132,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2117,41 +2168,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>297.0909090909091</v>
+        <v>188.640625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 13:05:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 13:22:24</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 13:22:24</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 08:31:02</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2160,17 +2211,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2178,57 +2229,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3548936631944444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251520</v>
+        <v>251421</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>297.0909090909091</v>
+        <v>81.9375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 08:31:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-09 08:46:02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-09 08:46:02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-09 10:07:59</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16340</v>
+        <v>5244</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2237,24 +2288,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2266,41 +2324,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245275</v>
+        <v>251340</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44.5</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>441.7090909090909</v>
+        <v>512.5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-09 10:07:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:40</t>
+          <t>2025-05-09 10:24:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:40</t>
+          <t>2025-05-09 10:24:59</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:11:23</t>
+          <t>2025-05-12 10:57:29</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>24294</v>
+        <v>32800</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2309,14 +2367,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2326,7 +2384,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2338,74 +2396,67 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251562</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>127.21875</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 10:57:29</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 11:27:29</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 11:27:29</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 13:34:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>8142</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2417,7 +2468,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251455</v>
+        <v>251397</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2425,33 +2476,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>82.765625</v>
+        <v>84.921875</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 13:34:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 13:51:42</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 13:51:42</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-13 07:16:37</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5297</v>
+        <v>5435</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2464,37 +2515,32 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251391</v>
+        <v>251809</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2505,30 +2551,30 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>91.640625</v>
+        <v>135.640625</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-13 07:16:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-13 07:33:37</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-13 07:33:37</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-13 09:49:15</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5865</v>
+        <v>8681</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2541,37 +2587,32 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251395</v>
+        <v>251229</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2579,33 +2620,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>35.34375</v>
+        <v>292.796875</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-13 09:49:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-13 10:08:15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-13 10:08:15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-14 07:01:03</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2614,7 +2655,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2623,8 +2664,10 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39749</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2632,23 +2675,23 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251371</v>
+        <v>251246</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2656,33 +2699,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>187.53125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-14 07:01:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-14 07:16:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-14 07:16:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-14 10:23:35</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2691,38 +2734,31 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2735,29 +2771,29 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
         <v>74.34375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-14 10:23:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-14 10:38:35</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-14 10:38:35</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-07 13:15:05</t>
+          <t>2025-05-14 11:52:56</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2799,7 +2835,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251396</v>
+        <v>251373</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2807,33 +2843,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>35.34375</v>
+        <v>267.09375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-07 13:15:05</t>
+          <t>2025-05-14 11:52:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-07 13:30:05</t>
+          <t>2025-05-14 12:09:56</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-07 13:30:05</t>
+          <t>2025-05-14 12:09:56</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:26</t>
+          <t>2025-05-15 08:37:01</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2262</v>
+        <v>17094</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2846,37 +2882,32 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.587109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251548</v>
+        <v>235572</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2884,33 +2915,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>206.90625</v>
+        <v>155.59375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:26</t>
+          <t>2025-05-15 08:37:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:26</t>
+          <t>2025-05-15 08:52:01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:26</t>
+          <t>2025-05-15 08:52:01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 09:51:20</t>
+          <t>2025-05-15 11:27:37</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>13242</v>
+        <v>9958</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2919,41 +2950,36 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-1.410655381944445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>250923</v>
+        <v>251561</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2961,33 +2987,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>109.46875</v>
+        <v>84.921875</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 09:51:20</t>
+          <t>2025-05-15 11:27:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:20</t>
+          <t>2025-05-15 11:42:37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:20</t>
+          <t>2025-05-15 11:42:37</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:48</t>
+          <t>2025-05-15 13:07:32</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>7006</v>
+        <v>5435</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2996,41 +3022,36 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
-      </c>
-      <c r="N35" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.508897569444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251225</v>
+        <v>251546</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3038,33 +3059,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>101.03125</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:48</t>
+          <t>2025-05-15 13:07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:29:48</t>
+          <t>2025-05-15 13:22:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:29:48</t>
+          <t>2025-05-15 13:22:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:29:48</t>
+          <t>2025-05-16 07:03:34</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3073,25 +3094,20 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3099,15 +3115,15 @@
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.520703125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251227</v>
+        <v>251475</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3115,33 +3131,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>135.640625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:29:48</t>
+          <t>2025-05-16 07:03:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:44:48</t>
+          <t>2025-05-16 07:20:34</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:44:48</t>
+          <t>2025-05-16 07:20:34</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:44:48</t>
+          <t>2025-05-16 09:36:13</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3150,41 +3166,36 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-2.531119791666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251421</v>
+        <v>251594</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3192,33 +3203,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>81.9375</v>
+        <v>101.03125</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 12:44:48</t>
+          <t>2025-05-16 09:36:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:01:48</t>
+          <t>2025-05-16 09:51:13</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:01:48</t>
+          <t>2025-05-16 09:51:13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:23:45</t>
+          <t>2025-05-16 11:32:15</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5244</v>
+        <v>6466</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3227,31 +3238,24 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3263,7 +3267,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251782</v>
+        <v>250819</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3271,33 +3275,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
-        <v>188.640625</v>
+        <v>133.234375</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:23:45</t>
+          <t>2025-05-16 11:32:15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:38:45</t>
+          <t>2025-05-16 11:51:15</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:38:45</t>
+          <t>2025-05-16 11:51:15</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:23</t>
+          <t>2025-05-16 14:04:29</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12073</v>
+        <v>8527</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3306,41 +3310,36 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.40791015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>250894</v>
+        <v>251245</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3348,33 +3347,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>691.59375</v>
+        <v>11.78125</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:23</t>
+          <t>2025-05-16 14:04:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:23</t>
+          <t>2025-05-16 14:19:29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:23</t>
+          <t>2025-05-16 14:19:29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:59</t>
+          <t>2025-05-16 14:31:15</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>44262</v>
+        <v>754</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3383,17 +3382,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
-      </c>
-      <c r="N40" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3403,7 +3399,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3415,7 +3411,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245090</v>
+        <v>251247</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3426,30 +3422,30 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>8073.71875</v>
+        <v>420.84375</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:59</t>
+          <t>2025-05-16 14:31:15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:59</t>
+          <t>2025-05-16 14:46:15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:59</t>
+          <t>2025-05-16 14:46:15</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-04 12:26:42</t>
+          <t>2025-05-19 13:47:06</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>516718</v>
+        <v>26934</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3458,14 +3454,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3475,7 +3471,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3487,7 +3483,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251987</v>
+        <v>251062</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3495,33 +3491,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>3289.46875</v>
+        <v>353.5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:26:42</t>
+          <t>2025-05-19 13:47:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:43:42</t>
+          <t>2025-05-19 14:02:06</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:43:42</t>
+          <t>2025-05-19 14:02:06</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-13 11:33:10</t>
+          <t>2025-05-20 11:55:36</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>210526</v>
+        <v>22624</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3530,14 +3526,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3547,7 +3543,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3559,7 +3555,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251340</v>
+        <v>251374</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3567,33 +3563,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>512.5</v>
+        <v>427.234375</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-13 11:33:10</t>
+          <t>2025-05-20 11:55:36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-13 11:56:10</t>
+          <t>2025-05-20 12:12:36</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-13 11:56:10</t>
+          <t>2025-05-20 12:12:36</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-16 12:28:40</t>
+          <t>2025-05-21 11:19:50</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>32800</v>
+        <v>27343</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3602,14 +3598,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3619,7 +3615,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3631,41 +3627,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251465</v>
+        <v>251547</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>97.28125</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-16 12:28:40</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-16 12:58:40</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-16 12:58:40</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-16 14:35:57</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6226</v>
+        <v>13129</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3678,66 +3674,71 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251519</v>
+        <v>250759</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>205.859375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-16 14:35:57</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-16 14:50:57</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-16 14:50:57</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-17 10:16:48</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>13175</v>
+        <v>8398</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3746,70 +3747,75 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251562</v>
+        <v>250670</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>127.21875</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-17 10:16:48</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-17 10:31:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-17 10:31:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-17 12:39:01</t>
+          <t>2025-05-08 13:44:12</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8142</v>
+        <v>1563</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3835,7 +3841,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3847,41 +3853,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251397</v>
+        <v>251651</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>84.921875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-17 12:39:01</t>
+          <t>2025-05-08 13:44:12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-17 12:56:01</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-17 12:56:01</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-17 14:20:57</t>
+          <t>2025-05-12 09:00:47</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5435</v>
+        <v>46830</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3890,14 +3896,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39755</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3907,7 +3916,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3919,41 +3928,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244354</v>
+        <v>245089</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>67.34375</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-17 14:20:57</t>
+          <t>2025-05-12 09:00:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-17 14:37:57</t>
+          <t>2025-05-12 09:17:47</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-17 14:37:57</t>
+          <t>2025-05-12 09:17:47</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-18 07:45:17</t>
+          <t>2025-05-15 14:05:27</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4310</v>
+        <v>122665</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3979,7 +3988,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3991,41 +4000,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251594</v>
+        <v>251580</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>101.03125</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-18 07:45:17</t>
+          <t>2025-05-15 14:05:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-18 08:00:17</t>
+          <t>2025-05-15 14:35:27</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-18 08:00:17</t>
+          <t>2025-05-15 14:35:27</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-18 09:41:19</t>
+          <t>2025-05-16 08:16:12</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6466</v>
+        <v>7153</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4051,7 +4060,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4063,41 +4072,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251373</v>
+        <v>244354</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>267.09375</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-18 09:41:19</t>
+          <t>2025-05-16 08:16:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-18 09:58:19</t>
+          <t>2025-05-16 08:31:12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-18 09:58:19</t>
+          <t>2025-05-16 08:31:12</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-18 14:25:25</t>
+          <t>2025-05-16 09:31:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>17094</v>
+        <v>4310</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4110,7 +4119,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4123,7 +4132,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4135,41 +4144,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>235572</v>
+        <v>251463</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>155.59375</v>
+        <v>98.12676056338029</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-18 14:25:25</t>
+          <t>2025-05-16 09:31:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-18 14:40:25</t>
+          <t>2025-05-16 09:46:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-18 14:40:25</t>
+          <t>2025-05-16 09:46:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-19 09:16:00</t>
+          <t>2025-05-16 11:25:02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9958</v>
+        <v>6967</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4195,7 +4204,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4207,41 +4216,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251475</v>
+        <v>251743</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>135.640625</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-19 09:16:00</t>
+          <t>2025-05-16 11:25:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-19 09:33:00</t>
+          <t>2025-05-16 11:40:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-19 09:33:00</t>
+          <t>2025-05-16 11:40:02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-19 11:48:39</t>
+          <t>2025-05-16 14:11:49</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>10776</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4267,7 +4276,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4279,41 +4288,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251743</v>
+        <v>251453</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>168.375</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-19 11:48:39</t>
+          <t>2025-05-16 14:11:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-19 12:03:39</t>
+          <t>2025-05-16 14:28:49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-19 12:03:39</t>
+          <t>2025-05-16 14:28:49</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-19 14:52:01</t>
+          <t>2025-05-19 07:39:14</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>10776</v>
+        <v>5000</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4326,20 +4335,27 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4351,41 +4367,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251561</v>
+        <v>251564</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>84.921875</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-19 14:52:01</t>
+          <t>2025-05-19 07:39:14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-20 07:09:01</t>
+          <t>2025-05-19 07:54:14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-20 07:09:01</t>
+          <t>2025-05-19 07:54:14</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-20 08:33:57</t>
+          <t>2025-05-19 08:32:30</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5435</v>
+        <v>2717</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4398,7 +4414,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4423,41 +4439,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251546</v>
+        <v>251626</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>101.03125</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-20 08:33:57</t>
+          <t>2025-05-19 08:32:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-20 08:48:57</t>
+          <t>2025-05-19 08:47:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-20 08:48:57</t>
+          <t>2025-05-19 08:47:30</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-20 10:29:59</t>
+          <t>2025-05-19 11:43:33</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6466</v>
+        <v>12500</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4470,7 +4486,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4495,41 +4511,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250819</v>
+        <v>251761</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>133.234375</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-20 10:29:59</t>
+          <t>2025-05-19 11:43:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-20 10:46:59</t>
+          <t>2025-05-19 12:00:33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-20 10:46:59</t>
+          <t>2025-05-19 12:00:33</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-20 13:00:13</t>
+          <t>2025-05-20 07:07:35</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8527</v>
+        <v>13279</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4542,7 +4558,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4555,7 +4571,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4567,41 +4583,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251245</v>
+        <v>251464</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>11.78125</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-20 13:00:13</t>
+          <t>2025-05-20 07:07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-20 13:15:13</t>
+          <t>2025-05-20 07:22:35</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-20 13:15:13</t>
+          <t>2025-05-20 07:22:35</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-20 13:27:00</t>
+          <t>2025-05-20 09:03:20</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>754</v>
+        <v>7153</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4610,11 +4626,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4627,7 +4643,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4639,41 +4655,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251247</v>
+        <v>251519</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>420.84375</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-20 13:27:00</t>
+          <t>2025-05-20 09:03:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-20 13:42:00</t>
+          <t>2025-05-20 09:22:20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-20 13:42:00</t>
+          <t>2025-05-20 09:22:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-23 12:42:50</t>
+          <t>2025-05-20 12:27:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>26934</v>
+        <v>13175</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4682,11 +4698,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4699,7 +4715,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4711,41 +4727,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251062</v>
+        <v>251462</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>353.5</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-23 12:42:50</t>
+          <t>2025-05-20 12:27:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-23 12:57:50</t>
+          <t>2025-05-20 12:42:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-23 12:57:50</t>
+          <t>2025-05-20 12:42:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-24 10:51:20</t>
+          <t>2025-05-20 14:10:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>22624</v>
+        <v>6226</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4754,11 +4770,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4771,7 +4787,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4783,7 +4799,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251547</v>
+        <v>251467</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4791,33 +4807,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>184.9154929577465</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-20 14:10:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-20 14:25:35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-20 14:25:35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-21 07:53:16</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13129</v>
+        <v>6226</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4830,37 +4846,32 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>250759</v>
+        <v>251557</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4868,33 +4879,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>118.2816901408451</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-21 07:53:16</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-21 08:08:16</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-21 08:08:16</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-21 09:42:43</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8398</v>
+        <v>6705</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4903,41 +4914,36 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
-      </c>
-      <c r="N61" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251651</v>
+        <v>251485</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4945,33 +4951,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>659.5774647887324</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-21 09:42:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-21 10:03:43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-21 10:03:43</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-21 11:11:26</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>46830</v>
+        <v>4808</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4980,17 +4986,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="N62" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5000,7 +5003,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5012,7 +5015,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251485</v>
+        <v>251283</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5020,33 +5023,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>67.71830985915493</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-21 11:11:26</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:46</t>
+          <t>2025-05-21 11:28:26</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:46</t>
+          <t>2025-05-21 11:28:26</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:29</t>
+          <t>2025-05-21 11:39:03</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4808</v>
+        <v>754</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5055,11 +5058,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5072,7 +5075,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5084,7 +5087,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>245350</v>
+        <v>251252</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5092,33 +5095,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>393.943661971831</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:29</t>
+          <t>2025-05-21 11:39:03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:29</t>
+          <t>2025-05-21 11:54:03</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:29</t>
+          <t>2025-05-21 11:54:03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:26</t>
+          <t>2025-05-22 07:26:29</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>27970</v>
+        <v>15083</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5127,11 +5130,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5144,7 +5147,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5156,7 +5159,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>250641</v>
+        <v>245350</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5167,30 +5170,30 @@
         <v>23</v>
       </c>
       <c r="D65" t="n">
-        <v>72.05633802816901</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:26</t>
+          <t>2025-05-22 07:26:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:26</t>
+          <t>2025-05-22 07:49:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:26</t>
+          <t>2025-05-22 07:49:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:29</t>
+          <t>2025-05-22 14:23:26</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5116</v>
+        <v>27970</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5199,11 +5202,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5216,7 +5219,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5228,41 +5231,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251283</v>
+        <v>251742</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>10.61971830985915</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:29</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:29</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:29</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:06</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>754</v>
+        <v>8226</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5271,70 +5274,75 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251229</v>
+        <v>251840</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>263.9295774647887</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:06</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:06</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:06</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:02</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>18739</v>
+        <v>5714</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5343,19 +5351,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N67" t="n">
+        <v>39758</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5363,57 +5369,57 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39723</v>
+        <v>39758</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251566</v>
+        <v>251456</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>97.02816901408451</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:02</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:02</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:02</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:04</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6889</v>
+        <v>8999</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5426,66 +5432,71 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251466</v>
+        <v>251566</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>78.40845070422536</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:04</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:04</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:04</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:28</t>
+          <t>2025-05-09 08:58:59</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5567</v>
+        <v>6889</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5498,7 +5509,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5511,7 +5522,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5523,41 +5534,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251453</v>
+        <v>251424</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>70.4225352112676</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:28</t>
+          <t>2025-05-09 08:58:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:26:28</t>
+          <t>2025-05-09 09:18:59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:26:28</t>
+          <t>2025-05-09 09:18:59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 12:36:54</t>
+          <t>2025-05-09 11:57:22</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5000</v>
+        <v>9662</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5570,23 +5581,16 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5602,41 +5606,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251564</v>
+        <v>244355</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>38.26760563380282</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:36:54</t>
+          <t>2025-05-09 11:57:22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:54</t>
+          <t>2025-05-09 12:17:22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:54</t>
+          <t>2025-05-09 12:17:22</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:10</t>
+          <t>2025-05-09 13:28:01</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2717</v>
+        <v>4310</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5649,7 +5653,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5662,7 +5666,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5674,41 +5678,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251626</v>
+        <v>251505</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>176.056338028169</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:10</t>
+          <t>2025-05-09 13:28:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 13:45:10</t>
+          <t>2025-05-09 13:53:01</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 13:45:10</t>
+          <t>2025-05-09 13:53:01</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 08:41:13</t>
+          <t>2025-05-12 09:46:43</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>12500</v>
+        <v>14255</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5721,7 +5725,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5734,7 +5738,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5746,41 +5750,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251761</v>
+        <v>251259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>187.0281690140845</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-15 08:41:13</t>
+          <t>2025-05-12 09:46:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-15 08:58:13</t>
+          <t>2025-05-12 10:26:43</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-15 08:58:13</t>
+          <t>2025-05-12 10:26:43</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-15 12:05:15</t>
+          <t>2025-05-12 11:48:41</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>13279</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5793,7 +5797,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5806,7 +5810,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5818,41 +5822,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251464</v>
+        <v>251346</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>100.7464788732394</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:05:15</t>
+          <t>2025-05-12 11:48:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:20:15</t>
+          <t>2025-05-12 12:13:41</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:20:15</t>
+          <t>2025-05-12 12:13:41</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-15 14:01:00</t>
+          <t>2025-05-12 13:16:57</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>7153</v>
+        <v>3859</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5865,7 +5869,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5878,7 +5882,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5890,41 +5894,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251846</v>
+        <v>244023</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>160.4507042253521</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-15 14:01:00</t>
+          <t>2025-05-12 13:16:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-15 14:20:00</t>
+          <t>2025-05-12 13:46:57</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-15 14:20:00</t>
+          <t>2025-05-12 13:46:57</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:27</t>
+          <t>2025-05-12 14:03:17</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>11392</v>
+        <v>997</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5937,7 +5941,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5950,7 +5954,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5962,41 +5966,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251467</v>
+        <v>251061</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>87.69014084507042</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:27</t>
+          <t>2025-05-12 14:03:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-16 09:15:27</t>
+          <t>2025-05-12 14:23:17</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-16 09:15:27</t>
+          <t>2025-05-12 14:23:17</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-16 10:43:08</t>
+          <t>2025-05-13 12:56:41</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6226</v>
+        <v>23997</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6005,11 +6009,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6022,7 +6026,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6034,41 +6038,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251557</v>
+        <v>251260</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>94.43661971830986</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-16 10:43:08</t>
+          <t>2025-05-13 12:56:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-16 10:58:08</t>
+          <t>2025-05-13 13:16:41</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-16 10:58:08</t>
+          <t>2025-05-13 13:16:41</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-16 12:32:34</t>
+          <t>2025-05-14 07:50:16</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6705</v>
+        <v>9369</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6077,11 +6081,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6094,7 +6098,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6106,41 +6110,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251050</v>
+        <v>251795</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 07:50:16</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 08:10:16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 08:10:16</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 13:17:28</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6149,41 +6153,36 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="N78" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251054</v>
+        <v>251050</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6191,29 +6190,29 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>2025-05-09 10:37:00</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6252,15 +6251,15 @@
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6268,33 +6267,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>2025-05-09 11:12:00</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6307,15 +6306,13 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N80" t="n">
+        <v>39747</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6323,23 +6320,23 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251109</v>
+        <v>251081</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6347,33 +6344,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D81" t="n">
-        <v>266.5915492957747</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>2025-05-09 13:59:25</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:54:25</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:54:25</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:21:00</t>
-        </is>
-      </c>
       <c r="I81" t="n">
-        <v>18928</v>
+        <v>3012</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6386,66 +6383,73 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
-      <c r="O81" t="n">
-        <v>0</v>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251477</v>
+        <v>251109</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>422.5211267605634</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>29999</v>
+        <v>18928</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6454,41 +6458,36 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
-      </c>
-      <c r="N82" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251268</v>
+        <v>251477</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6499,30 +6498,30 @@
         <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>2025-05-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:17:00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:17:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>2025-05-09 11:19:31</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:36:31</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:36:31</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:36:31</t>
-        </is>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6531,19 +6530,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>76</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+      <c r="N83" t="n">
+        <v>39760</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6551,23 +6548,23 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>39666</v>
+        <v>39760</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>250670</v>
+        <v>250894</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6575,33 +6572,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>22.01408450704225</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:32</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1563</v>
+        <v>44262</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6614,11 +6611,14 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
         <v>76</v>
       </c>
+      <c r="N84" t="n">
+        <v>39755</v>
+      </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>245089</v>
+        <v>251987</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6647,33 +6647,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>1727.676056338028</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:32</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:32</t>
+          <t>2025-05-12 14:18:55</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:32</t>
+          <t>2025-05-12 14:18:55</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 09:16:12</t>
+          <t>2025-05-21 07:44:05</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>122665</v>
+        <v>210526</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6682,11 +6682,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
         <v>76</v>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6719,29 +6719,29 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
         <v>36.63380281690141</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-15 09:16:12</t>
+          <t>2025-05-21 07:44:05</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-15 09:33:12</t>
+          <t>2025-05-21 08:05:05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-15 09:33:12</t>
+          <t>2025-05-21 08:05:05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-15 10:09:50</t>
+          <t>2025-05-21 08:41:43</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6798,22 +6798,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-15 10:09:50</t>
+          <t>2025-05-21 08:41:43</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-15 10:39:50</t>
+          <t>2025-05-21 09:11:43</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-15 10:39:50</t>
+          <t>2025-05-21 09:11:43</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-15 11:34:38</t>
+          <t>2025-05-21 10:06:31</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -6870,22 +6870,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-15 11:34:38</t>
+          <t>2025-05-21 10:06:31</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-15 11:51:38</t>
+          <t>2025-05-21 10:23:31</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-15 11:51:38</t>
+          <t>2025-05-21 10:23:31</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-16 10:03:44</t>
+          <t>2025-05-22 08:35:37</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7004,7 +7004,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>244204</v>
+        <v>245090</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>56.91803278688525</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -7024,21 +7024,21 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3472</v>
+        <v>516718</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7047,14 +7047,14 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M90" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251416</v>
+        <v>251466</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>162.6376811594203</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:38</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>11222</v>
+        <v>5567</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,14 +562,11 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39755</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -578,7 +575,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -590,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251846</v>
+        <v>251465</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,33 +595,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>165.1014492753623</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:38</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:38</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:38</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:44</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11392</v>
+        <v>6226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -650,7 +647,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
@@ -662,7 +659,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251465</v>
+        <v>251416</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -673,30 +670,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>90.23188405797102</v>
+        <v>162.6376811594203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:44</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:44</t>
+          <t>2025-05-12 11:15:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:44</t>
+          <t>2025-05-12 11:15:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:58</t>
+          <t>2025-05-12 13:58:33</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6226</v>
+        <v>11222</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,6 +711,9 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -734,7 +734,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251466</v>
+        <v>251846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>80.68115942028986</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:58</t>
+          <t>2025-05-12 13:58:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:58</t>
+          <t>2025-05-12 14:23:33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:58</t>
+          <t>2025-05-12 14:23:33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 09:13:39</t>
+          <t>2025-05-13 09:08:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5567</v>
+        <v>11392</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -806,7 +806,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>244204</v>
+        <v>251463</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,14 +814,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>50.31884057971015</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:13:39</t>
+          <t>2025-05-13 09:08:39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -836,11 +836,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:58</t>
+          <t>2025-05-13 11:24:37</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3472</v>
+        <v>6967</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -878,7 +878,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>243335</v>
+        <v>251809</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -886,33 +886,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>478.3188405797101</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:58</t>
+          <t>2025-05-13 11:24:37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:58</t>
+          <t>2025-05-13 11:49:37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:58</t>
+          <t>2025-05-13 11:49:37</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 11:02:17</t>
+          <t>2025-05-13 13:55:26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>33004</v>
+        <v>8681</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -950,41 +950,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251284</v>
+        <v>251268</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 13:55:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 14:25:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 14:25:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 14:25:26</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,17 +993,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39747</v>
+        <v>76</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1011,57 +1013,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251251</v>
+        <v>251742</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>288.3636363636364</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:58:27</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15860</v>
+        <v>8226</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1070,70 +1072,75 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251520</v>
+        <v>251840</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>297.0909090909091</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 09:58:27</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:30:57</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:30:57</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:02</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>16340</v>
+        <v>5714</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1142,70 +1149,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>245275</v>
+        <v>251456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.5</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>441.7090909090909</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:02</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:32</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:32</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:15</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>24294</v>
+        <v>8999</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1214,103 +1226,101 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251706</v>
+        <v>244354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50.79365079365079</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 08:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3200</v>
+        <v>4310</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1322,41 +1332,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>251424</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>82.765625</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 08:16:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 08:36:42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 08:36:42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:15:05</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>9662</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1374,66 +1384,61 @@
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251391</v>
+        <v>244355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>91.640625</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:15:05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 11:35:05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 11:35:05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:45:45</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5865</v>
+        <v>4310</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1446,71 +1451,66 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251395</v>
+        <v>251246</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>35.34375</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:45:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 13:15:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 13:15:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 08:32:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2262</v>
+        <v>12002</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1528,66 +1528,61 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251371</v>
+        <v>251252</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 08:32:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 08:52:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 08:52:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 12:59:46</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15083</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1596,77 +1591,70 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250641</v>
+        <v>244023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>79.9375</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 12:59:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 13:19:46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 13:19:46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 13:20:41</t>
+          <t>2025-05-12 13:36:06</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5116</v>
+        <v>997</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1692,7 +1680,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1704,41 +1692,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251396</v>
+        <v>251061</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:20:41</t>
+          <t>2025-05-12 13:36:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:35:41</t>
+          <t>2025-05-12 13:56:06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:35:41</t>
+          <t>2025-05-12 13:56:06</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:11:01</t>
+          <t>2025-05-13 12:29:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>23997</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1747,7 +1735,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1756,66 +1744,61 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.5909939236111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251548</v>
+        <v>251260</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>206.90625</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:11:01</t>
+          <t>2025-05-13 12:29:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:01</t>
+          <t>2025-05-13 12:49:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:01</t>
+          <t>2025-05-13 12:49:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:56:56</t>
+          <t>2025-05-14 07:23:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13242</v>
+        <v>9369</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,75 +1807,70 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.414539930555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250923</v>
+        <v>251795</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>109.46875</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 09:56:56</t>
+          <t>2025-05-14 07:23:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:56</t>
+          <t>2025-05-14 07:43:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:56</t>
+          <t>2025-05-14 07:43:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:24</t>
+          <t>2025-05-14 12:50:17</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7006</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1901,75 +1879,70 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
-      </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.512782118055556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251225</v>
+        <v>251346</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:24</t>
+          <t>2025-05-14 12:50:17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:35:24</t>
+          <t>2025-05-14 13:20:17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:35:24</t>
+          <t>2025-05-14 13:20:17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:35:24</t>
+          <t>2025-05-14 14:23:33</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1978,75 +1951,70 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5245876736111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251227</v>
+        <v>251259</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:35:24</t>
+          <t>2025-05-14 14:23:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:50:24</t>
+          <t>2025-05-14 14:48:33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:50:24</t>
+          <t>2025-05-14 14:48:33</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:50:24</t>
+          <t>2025-05-15 08:10:31</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2055,75 +2023,70 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.535004340277778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251268</v>
+        <v>251284</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:50:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2132,19 +2095,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39747</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2152,57 +2113,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251782</v>
+        <v>251374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D24" t="n">
-        <v>188.640625</v>
+        <v>497.1454545454545</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:24</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:24</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 08:31:02</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12073</v>
+        <v>27343</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2211,75 +2172,70 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.3548936631944444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251421</v>
+        <v>251249</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D25" t="n">
-        <v>81.9375</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 08:31:02</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 08:46:02</t>
+          <t>2025-05-12 13:57:44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 08:46:02</t>
+          <t>2025-05-12 13:57:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:59</t>
+          <t>2025-05-13 07:24:14</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5244</v>
+        <v>4758</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2288,31 +2244,24 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2324,41 +2273,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251340</v>
+        <v>251462</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>38.5</v>
       </c>
       <c r="D26" t="n">
-        <v>512.5</v>
+        <v>113.2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:59</t>
+          <t>2025-05-13 07:24:14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:24:59</t>
+          <t>2025-05-13 08:02:44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:24:59</t>
+          <t>2025-05-13 08:02:44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:29</t>
+          <t>2025-05-13 09:55:56</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>32800</v>
+        <v>6226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2367,14 +2316,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2384,7 +2333,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2396,41 +2345,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251562</v>
+        <v>251520</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>127.21875</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:29</t>
+          <t>2025-05-13 09:55:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 11:27:29</t>
+          <t>2025-05-13 10:36:26</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 11:27:29</t>
+          <t>2025-05-13 10:36:26</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:42</t>
+          <t>2025-05-14 07:33:32</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8142</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2439,11 +2388,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2456,7 +2405,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2468,41 +2417,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251397</v>
+        <v>245275</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>44.5</v>
       </c>
       <c r="D28" t="n">
-        <v>84.921875</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:42</t>
+          <t>2025-05-14 07:33:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:42</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:42</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:37</t>
+          <t>2025-05-15 07:39:44</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2511,11 +2460,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2528,7 +2477,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2540,67 +2489,74 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251809</v>
+        <v>251706</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>135.640625</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:49:15</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8681</v>
+        <v>3200</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2612,7 +2568,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2623,30 +2579,30 @@
         <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>292.796875</v>
+        <v>82.765625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:49:15</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:08:15</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:08:15</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:03</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2655,19 +2611,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N30" t="n">
+        <v>39749</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2675,23 +2629,23 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251246</v>
+        <v>251391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2699,33 +2653,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>187.53125</v>
+        <v>91.640625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:03</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:03</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:03</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-14 10:23:35</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12002</v>
+        <v>5865</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2734,36 +2688,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251249</v>
+        <v>251395</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2771,33 +2730,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>74.34375</v>
+        <v>35.34375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-14 10:23:35</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-14 10:38:35</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-14 10:38:35</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:56</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4758</v>
+        <v>2262</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2806,7 +2765,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2815,27 +2774,32 @@
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251373</v>
+        <v>251371</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2843,33 +2807,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>267.09375</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:56</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:56</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:56</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-15 08:37:01</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17094</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2882,32 +2846,39 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>235572</v>
+        <v>251396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2915,33 +2886,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>155.59375</v>
+        <v>35.34375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-15 08:37:01</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-15 08:52:01</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-15 08:52:01</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-15 11:27:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>9958</v>
+        <v>2262</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2950,36 +2921,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251561</v>
+        <v>251548</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2987,33 +2963,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>84.921875</v>
+        <v>206.90625</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-15 11:27:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-15 13:07:32</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5435</v>
+        <v>13242</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3026,32 +3002,37 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251546</v>
+        <v>250923</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3059,33 +3040,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>101.03125</v>
+        <v>109.46875</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-15 13:07:32</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-15 13:22:32</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-15 13:22:32</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-16 07:03:34</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6466</v>
+        <v>7006</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3094,36 +3075,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N36" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251475</v>
+        <v>251225</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3134,30 +3120,30 @@
         <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>135.640625</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-16 07:03:34</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-16 07:20:34</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-16 07:20:34</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-16 09:36:13</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3166,20 +3152,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3187,15 +3178,15 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-0.4586588541666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251594</v>
+        <v>251227</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3206,30 +3197,30 @@
         <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>101.03125</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-16 09:36:13</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-16 09:51:13</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-16 09:51:13</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-16 11:32:15</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6466</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3238,36 +3229,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-2.469075520833333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250819</v>
+        <v>251421</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3275,33 +3271,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>133.234375</v>
+        <v>81.9375</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-16 11:32:15</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-16 11:51:15</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-16 11:51:15</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-16 14:04:29</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8527</v>
+        <v>5244</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3310,24 +3306,31 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3339,7 +3342,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251245</v>
+        <v>251782</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3350,30 +3353,30 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>11.78125</v>
+        <v>188.640625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-16 14:04:29</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-16 14:19:29</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-16 14:19:29</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-16 14:31:15</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>754</v>
+        <v>12073</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3382,36 +3385,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N40" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-0.3458658854166667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251247</v>
+        <v>250894</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3419,33 +3427,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>420.84375</v>
+        <v>691.59375</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-16 14:31:15</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:15</t>
+          <t>2025-05-09 08:37:02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:15</t>
+          <t>2025-05-09 08:37:02</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-19 13:47:06</t>
+          <t>2025-05-12 12:08:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26934</v>
+        <v>44262</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3454,14 +3462,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39755</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3471,7 +3482,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3483,7 +3494,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251062</v>
+        <v>251987</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3491,33 +3502,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>353.5</v>
+        <v>3289.46875</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-19 13:47:06</t>
+          <t>2025-05-12 12:08:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-19 14:02:06</t>
+          <t>2025-05-12 12:25:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-19 14:02:06</t>
+          <t>2025-05-12 12:25:38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-20 11:55:36</t>
+          <t>2025-05-21 11:15:06</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>22624</v>
+        <v>210526</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3526,14 +3537,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3543,7 +3554,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3555,7 +3566,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251374</v>
+        <v>251340</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3563,33 +3574,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>427.234375</v>
+        <v>512.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-20 11:55:36</t>
+          <t>2025-05-21 11:15:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-20 12:12:36</t>
+          <t>2025-05-21 11:38:06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-20 12:12:36</t>
+          <t>2025-05-21 11:38:06</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-21 11:19:50</t>
+          <t>2025-05-22 12:10:36</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>27343</v>
+        <v>32800</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3598,14 +3609,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3615,7 +3626,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3627,41 +3638,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251547</v>
+        <v>251519</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>184.9154929577465</v>
+        <v>205.859375</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-22 12:10:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-22 12:40:36</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-22 12:40:36</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-23 08:06:28</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>13129</v>
+        <v>13175</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3674,71 +3685,66 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250759</v>
+        <v>251562</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>118.2816901408451</v>
+        <v>127.21875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-23 08:06:28</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-23 08:21:28</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-23 08:21:28</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-23 10:28:41</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8398</v>
+        <v>8142</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3747,75 +3753,70 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>250670</v>
+        <v>251397</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>22.01408450704225</v>
+        <v>84.921875</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-23 10:28:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-23 10:45:41</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-23 10:45:41</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:12</t>
+          <t>2025-05-23 12:10:36</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1563</v>
+        <v>5435</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3824,14 +3825,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3841,7 +3842,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3853,41 +3854,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251651</v>
+        <v>251594</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>659.5774647887324</v>
+        <v>101.03125</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:12</t>
+          <t>2025-05-23 12:10:36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-23 12:27:36</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-23 12:27:36</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:47</t>
+          <t>2025-05-23 14:08:38</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>46830</v>
+        <v>6466</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3896,17 +3897,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3916,7 +3914,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3928,41 +3926,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245089</v>
+        <v>251373</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>1727.676056338028</v>
+        <v>267.09375</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:47</t>
+          <t>2025-05-23 14:08:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:47</t>
+          <t>2025-05-23 14:25:38</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:47</t>
+          <t>2025-05-23 14:25:38</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-15 14:05:27</t>
+          <t>2025-05-26 10:52:44</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>122665</v>
+        <v>17094</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3971,14 +3969,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3988,7 +3986,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -4000,41 +3998,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251580</v>
+        <v>235572</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>100.7464788732394</v>
+        <v>155.59375</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-15 14:05:27</t>
+          <t>2025-05-26 10:52:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-15 14:35:27</t>
+          <t>2025-05-26 11:07:44</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-15 14:35:27</t>
+          <t>2025-05-26 11:07:44</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-16 08:16:12</t>
+          <t>2025-05-26 13:43:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7153</v>
+        <v>9958</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4043,11 +4041,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4072,41 +4070,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244354</v>
+        <v>251475</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>60.70422535211268</v>
+        <v>135.640625</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-16 08:16:12</t>
+          <t>2025-05-26 13:43:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-16 08:31:12</t>
+          <t>2025-05-26 14:00:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-16 08:31:12</t>
+          <t>2025-05-26 14:00:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-16 09:31:54</t>
+          <t>2025-05-27 08:15:58</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4310</v>
+        <v>8681</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4132,7 +4130,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4144,41 +4142,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251463</v>
+        <v>251743</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>98.12676056338029</v>
+        <v>168.375</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-16 09:31:54</t>
+          <t>2025-05-27 08:15:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-16 09:46:54</t>
+          <t>2025-05-27 08:30:58</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-16 09:46:54</t>
+          <t>2025-05-27 08:30:58</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-16 11:25:02</t>
+          <t>2025-05-27 11:19:20</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6967</v>
+        <v>10776</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4204,7 +4202,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4216,41 +4214,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251743</v>
+        <v>251561</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>151.7746478873239</v>
+        <v>84.921875</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-16 11:25:02</t>
+          <t>2025-05-27 11:19:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-16 11:40:02</t>
+          <t>2025-05-27 11:36:20</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-16 11:40:02</t>
+          <t>2025-05-27 11:36:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-16 14:11:49</t>
+          <t>2025-05-27 13:01:15</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>10776</v>
+        <v>5435</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4263,7 +4261,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4276,7 +4274,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4288,41 +4286,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251453</v>
+        <v>251546</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>70.4225352112676</v>
+        <v>101.03125</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-16 14:11:49</t>
+          <t>2025-05-27 13:01:15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-16 14:28:49</t>
+          <t>2025-05-27 13:16:15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-16 14:28:49</t>
+          <t>2025-05-27 13:16:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-19 07:39:14</t>
+          <t>2025-05-27 14:57:17</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5000</v>
+        <v>6466</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4335,27 +4333,20 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4367,41 +4358,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251564</v>
+        <v>250819</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>38.26760563380282</v>
+        <v>133.234375</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-19 07:39:14</t>
+          <t>2025-05-27 14:57:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-19 07:54:14</t>
+          <t>2025-05-28 07:14:17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-19 07:54:14</t>
+          <t>2025-05-28 07:14:17</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-19 08:32:30</t>
+          <t>2025-05-28 09:27:31</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2717</v>
+        <v>8527</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4414,7 +4405,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4427,7 +4418,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4439,41 +4430,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251626</v>
+        <v>251245</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>176.056338028169</v>
+        <v>11.78125</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-19 08:32:30</t>
+          <t>2025-05-28 09:27:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-19 08:47:30</t>
+          <t>2025-05-28 09:42:31</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-19 08:47:30</t>
+          <t>2025-05-28 09:42:31</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-19 11:43:33</t>
+          <t>2025-05-28 09:54:18</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12500</v>
+        <v>754</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4482,11 +4473,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4499,7 +4490,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4511,41 +4502,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251761</v>
+        <v>251247</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>187.0281690140845</v>
+        <v>420.84375</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-19 11:43:33</t>
+          <t>2025-05-28 09:54:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-19 12:00:33</t>
+          <t>2025-05-28 10:09:18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-19 12:00:33</t>
+          <t>2025-05-28 10:09:18</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-20 07:07:35</t>
+          <t>2025-05-29 09:10:09</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13279</v>
+        <v>26934</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4554,11 +4545,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4571,7 +4562,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4583,41 +4574,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251464</v>
+        <v>251062</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>100.7464788732394</v>
+        <v>353.5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-20 07:07:35</t>
+          <t>2025-05-29 09:10:09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-20 07:22:35</t>
+          <t>2025-05-29 09:25:09</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-20 07:22:35</t>
+          <t>2025-05-29 09:25:09</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-20 09:03:20</t>
+          <t>2025-05-30 07:18:39</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7153</v>
+        <v>22624</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4626,11 +4617,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4643,7 +4634,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4655,7 +4646,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251519</v>
+        <v>251547</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4663,33 +4654,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>185.5633802816901</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-20 09:03:20</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-20 09:22:20</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-20 09:22:20</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-20 12:27:54</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13175</v>
+        <v>13129</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4702,32 +4693,37 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251462</v>
+        <v>250759</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4735,33 +4731,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>87.69014084507042</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-20 12:27:54</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-20 12:42:54</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-20 12:42:54</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-20 14:10:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6226</v>
+        <v>8398</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4770,36 +4766,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251467</v>
+        <v>251651</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4807,33 +4808,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>87.69014084507042</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-20 14:10:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-20 14:25:35</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-20 14:25:35</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-21 07:53:16</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6226</v>
+        <v>46830</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4842,14 +4843,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39755</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4859,7 +4863,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4871,7 +4875,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251557</v>
+        <v>251485</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4879,33 +4883,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>94.43661971830986</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-21 07:53:16</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-21 08:08:16</t>
+          <t>2025-05-12 08:53:46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-21 08:08:16</t>
+          <t>2025-05-12 08:53:46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-21 09:42:43</t>
+          <t>2025-05-12 10:01:29</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6705</v>
+        <v>4808</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4918,7 +4922,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4931,7 +4935,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4943,7 +4947,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251485</v>
+        <v>245350</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4951,33 +4955,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>67.71830985915493</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-21 09:42:43</t>
+          <t>2025-05-12 10:01:29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-21 10:03:43</t>
+          <t>2025-05-12 10:26:29</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-21 10:03:43</t>
+          <t>2025-05-12 10:26:29</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-21 11:11:26</t>
+          <t>2025-05-13 09:00:26</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>4808</v>
+        <v>27970</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4986,11 +4990,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5003,7 +5007,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5015,7 +5019,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251283</v>
+        <v>250641</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5023,33 +5027,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>10.61971830985915</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-21 11:11:26</t>
+          <t>2025-05-13 09:00:26</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-21 11:28:26</t>
+          <t>2025-05-13 09:23:26</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-21 11:28:26</t>
+          <t>2025-05-13 09:23:26</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-21 11:39:03</t>
+          <t>2025-05-13 10:35:29</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>754</v>
+        <v>5116</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5058,7 +5062,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5075,7 +5079,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5087,7 +5091,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251252</v>
+        <v>251283</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5098,30 +5102,30 @@
         <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>212.4366197183099</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-21 11:39:03</t>
+          <t>2025-05-13 10:35:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-21 11:54:03</t>
+          <t>2025-05-13 10:50:29</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-21 11:54:03</t>
+          <t>2025-05-13 10:50:29</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-22 07:26:29</t>
+          <t>2025-05-13 11:01:06</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>15083</v>
+        <v>754</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5147,7 +5151,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5159,7 +5163,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>245350</v>
+        <v>251229</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5167,33 +5171,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>393.943661971831</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-22 07:26:29</t>
+          <t>2025-05-13 11:01:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-22 07:49:29</t>
+          <t>2025-05-13 11:16:06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-22 07:49:29</t>
+          <t>2025-05-13 11:16:06</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-22 14:23:26</t>
+          <t>2025-05-14 07:40:02</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>27970</v>
+        <v>18739</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5202,24 +5206,31 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5231,41 +5242,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251742</v>
+        <v>251566</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>134.8524590163935</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:40:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-14 07:59:02</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-14 07:59:02</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 09:36:04</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8226</v>
+        <v>6889</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5283,66 +5294,61 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251840</v>
+        <v>251453</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>93.67213114754098</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 09:36:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 09:53:04</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 09:53:04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 11:03:29</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5714</v>
+        <v>5000</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5355,13 +5361,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39758</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5369,57 +5377,57 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39758</v>
+        <v>39742</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251456</v>
+        <v>251564</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>147.5245901639344</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 11:03:29</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-14 11:18:29</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-14 11:18:29</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-14 11:56:45</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8999</v>
+        <v>2717</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5437,66 +5445,61 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251566</v>
+        <v>251626</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>112.9344262295082</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-14 11:56:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-14 12:11:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-14 12:11:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 08:58:59</t>
+          <t>2025-05-15 07:07:49</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6889</v>
+        <v>12500</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5509,7 +5512,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5522,7 +5525,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5534,41 +5537,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251424</v>
+        <v>251761</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>158.3934426229508</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 08:58:59</t>
+          <t>2025-05-15 07:07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:59</t>
+          <t>2025-05-15 07:24:49</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:59</t>
+          <t>2025-05-15 07:24:49</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:22</t>
+          <t>2025-05-15 10:31:50</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>9662</v>
+        <v>13279</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5594,7 +5597,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5606,41 +5609,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>244355</v>
+        <v>251464</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>70.65573770491804</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:22</t>
+          <t>2025-05-15 10:31:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:22</t>
+          <t>2025-05-15 10:46:50</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:22</t>
+          <t>2025-05-15 10:46:50</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:28:01</t>
+          <t>2025-05-15 12:27:35</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5666,7 +5669,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5678,41 +5681,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251505</v>
+        <v>251467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>233.6885245901639</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 13:28:01</t>
+          <t>2025-05-15 12:27:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 13:53:01</t>
+          <t>2025-05-15 12:46:35</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 13:53:01</t>
+          <t>2025-05-15 12:46:35</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 09:46:43</t>
+          <t>2025-05-15 14:14:16</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>14255</v>
+        <v>6226</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5725,7 +5728,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5738,7 +5741,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5750,41 +5753,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251259</v>
+        <v>251557</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>81.9672131147541</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:46:43</t>
+          <t>2025-05-15 14:14:16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:43</t>
+          <t>2025-05-15 14:29:16</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:43</t>
+          <t>2025-05-15 14:29:16</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:41</t>
+          <t>2025-05-16 08:03:43</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>6705</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5797,7 +5800,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5810,7 +5813,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5822,41 +5825,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251346</v>
+        <v>251050</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D74" t="n">
-        <v>63.26229508196721</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:41</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:41</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:41</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:57</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3859</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5865,70 +5868,75 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>244023</v>
+        <v>251054</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>16.34426229508197</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:57</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:57</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:57</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 14:03:17</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5937,142 +5945,154 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251061</v>
+        <v>251081</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C76" t="n">
+        <v>125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
         <v>20</v>
-      </c>
-      <c r="D76" t="n">
-        <v>393.3934426229508</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:03:17</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:23:17</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:23:17</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:56:41</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>23997</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251260</v>
+        <v>251109</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
-        <v>153.5901639344262</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:41</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:16:41</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:16:41</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:16</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>9369</v>
+        <v>18928</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6081,11 +6101,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6098,7 +6118,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6110,41 +6130,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251795</v>
+        <v>251477</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>307.1967213114754</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:16</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:16</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:16</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:28</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>18739</v>
+        <v>29999</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6153,70 +6173,75 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N78" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251050</v>
+        <v>250670</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:58:32</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6225,75 +6250,70 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251054</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:58:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:13:32</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:13:32</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 09:01:12</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6302,75 +6322,70 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251081</v>
+        <v>243569</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>42.42253521126761</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 09:01:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 09:18:12</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 09:18:12</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-15 09:54:50</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3012</v>
+        <v>2601</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6379,77 +6394,70 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251109</v>
+        <v>251750</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>266.5915492957747</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-15 09:54:50</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-15 10:24:50</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-15 10:24:50</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-15 11:19:38</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>18928</v>
+        <v>3891</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6458,14 +6466,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6475,7 +6483,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6487,7 +6495,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251477</v>
+        <v>245623</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6498,30 +6506,30 @@
         <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>422.5211267605634</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-15 11:19:38</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-15 11:36:38</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-15 11:36:38</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-16 09:48:44</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>29999</v>
+        <v>26419</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6530,75 +6538,70 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="N83" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D84" t="n">
-        <v>623.4084507042254</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6607,73 +6610,75 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N84" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251987</v>
+        <v>251251</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>2965.154929577465</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:55</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:55</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-21 07:44:05</t>
+          <t>2025-05-09 09:17:45</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>210526</v>
+        <v>15860</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6682,14 +6687,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6699,7 +6704,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6711,41 +6716,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>243569</v>
+        <v>251580</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>36.63380281690141</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-21 07:44:05</t>
+          <t>2025-05-09 09:17:45</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-21 08:05:05</t>
+          <t>2025-05-09 10:02:45</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-21 08:05:05</t>
+          <t>2025-05-09 10:02:45</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-21 08:41:43</t>
+          <t>2025-05-09 12:28:44</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2601</v>
+        <v>7153</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6754,14 +6759,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6771,7 +6776,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6783,41 +6788,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251750</v>
+        <v>245090</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
-        <v>54.80281690140845</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-21 08:41:43</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-21 09:11:43</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-21 09:11:43</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-21 10:06:31</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3891</v>
+        <v>516718</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6830,10 +6835,10 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6843,7 +6848,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6855,41 +6860,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>245623</v>
+        <v>251505</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
-        <v>372.0985915492957</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-21 10:06:31</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-21 10:23:31</t>
+          <t>2025-06-03 13:19:47</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-21 10:23:31</t>
+          <t>2025-06-03 13:19:47</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-22 08:35:37</t>
+          <t>2025-06-04 09:13:28</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>26419</v>
+        <v>14255</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6898,14 +6903,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -6915,7 +6920,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
@@ -6927,41 +6932,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251164</v>
+        <v>244204</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>204.0816326530612</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 09:13:28</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-04 09:40:28</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-04 09:40:28</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-04 10:37:23</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>10000</v>
+        <v>3472</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6974,37 +6979,32 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
       </c>
-      <c r="N89" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>245090</v>
+        <v>243335</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7012,33 +7012,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>8470.786885245901</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 10:37:23</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 11:17:23</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 11:17:23</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-06-05 12:18:26</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>516718</v>
+        <v>33004</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7051,10 +7051,10 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251466</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80.68115942028986</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,47 +535,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5567</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -587,41 +594,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251465</v>
+        <v>245090</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>90.23188405797102</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:54</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6226</v>
+        <v>516718</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,14 +637,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -647,7 +654,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
@@ -659,41 +666,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251416</v>
+        <v>251742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>162.6376811594203</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:15:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:15:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:33</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>11222</v>
+        <v>8226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -706,69 +713,71 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251846</v>
+        <v>251840</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>165.1014492753623</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:33</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:33</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:33</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 09:08:39</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11392</v>
+        <v>5714</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -781,66 +790,71 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251463</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>100.9710144927536</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:08:39</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:43:39</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:43:39</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:37</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6967</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -853,16 +867,21 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -870,49 +889,49 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>244354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>125.8115942028985</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:37</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:37</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:37</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:26</t>
+          <t>2025-05-09 08:16:42</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>4310</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -938,7 +957,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -950,41 +969,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251268</v>
+        <v>244204</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:26</t>
+          <t>2025-05-09 08:16:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:25:26</t>
+          <t>2025-05-09 08:36:42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:25:26</t>
+          <t>2025-05-09 08:36:42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:25:26</t>
+          <t>2025-05-09 09:33:37</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3472</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,31 +1012,24 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1029,7 +1041,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251742</v>
+        <v>251252</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1040,30 +1052,30 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>134.8524590163935</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:33:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:03:37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:03:37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:10:53</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8226</v>
+        <v>15083</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1072,41 +1084,36 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251840</v>
+        <v>251249</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1114,33 +1121,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>93.67213114754098</v>
+        <v>78</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:10:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 14:30:53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 14:30:53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:48:53</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5714</v>
+        <v>4758</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1149,41 +1156,36 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251456</v>
+        <v>251283</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,33 +1193,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>147.5245901639344</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:48:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 08:08:53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 08:08:53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 08:21:14</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8999</v>
+        <v>754</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1226,41 +1228,36 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>244354</v>
+        <v>251505</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1271,30 +1268,30 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>70.65573770491804</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 08:21:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 08:46:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 08:46:14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 08:16:42</t>
+          <t>2025-05-12 12:39:56</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4310</v>
+        <v>14255</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1307,7 +1304,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1340,29 +1337,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
         <v>158.3934426229508</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 08:16:42</t>
+          <t>2025-05-12 12:39:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:42</t>
+          <t>2025-05-12 13:04:56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:42</t>
+          <t>2025-05-12 13:04:56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:05</t>
+          <t>2025-05-13 07:43:19</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1419,22 +1416,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:05</t>
+          <t>2025-05-13 07:43:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:05</t>
+          <t>2025-05-13 08:03:19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:05</t>
+          <t>2025-05-13 08:03:19</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:45</t>
+          <t>2025-05-13 09:13:59</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1476,7 +1473,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251246</v>
+        <v>244023</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1487,30 +1484,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>196.7540983606557</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:45</t>
+          <t>2025-05-13 09:13:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:45</t>
+          <t>2025-05-13 09:43:59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:45</t>
+          <t>2025-05-13 09:43:59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:30</t>
+          <t>2025-05-13 10:00:19</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12002</v>
+        <v>997</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1519,7 +1516,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1536,7 +1533,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1548,7 +1545,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251252</v>
+        <v>251061</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1559,30 +1556,30 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>247.2622950819672</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:30</t>
+          <t>2025-05-13 10:00:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:30</t>
+          <t>2025-05-13 10:20:19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:30</t>
+          <t>2025-05-13 10:20:19</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:46</t>
+          <t>2025-05-14 08:53:43</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>15083</v>
+        <v>23997</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1608,7 +1605,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1620,7 +1617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244023</v>
+        <v>251260</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1631,30 +1628,30 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>16.34426229508197</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:46</t>
+          <t>2025-05-14 08:53:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:19:46</t>
+          <t>2025-05-14 09:13:43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:19:46</t>
+          <t>2025-05-14 09:13:43</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:06</t>
+          <t>2025-05-14 11:47:18</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>997</v>
+        <v>9369</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1680,7 +1677,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1692,7 +1689,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251061</v>
+        <v>251795</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1703,30 +1700,30 @@
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>393.3934426229508</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:06</t>
+          <t>2025-05-14 11:47:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:06</t>
+          <t>2025-05-14 12:07:18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:06</t>
+          <t>2025-05-14 12:07:18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:30</t>
+          <t>2025-05-15 09:14:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>23997</v>
+        <v>18739</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1735,7 +1732,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1752,7 +1749,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1764,41 +1761,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251260</v>
+        <v>251466</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>153.5901639344262</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:30</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:30</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:05</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9369</v>
+        <v>5567</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1807,11 +1804,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1824,7 +1821,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1836,41 +1833,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251795</v>
+        <v>251465</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:05</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:05</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:05</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 12:50:17</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>6226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1879,11 +1876,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1896,7 +1893,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
@@ -1908,41 +1905,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251346</v>
+        <v>251809</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>63.26229508196721</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 12:50:17</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:17</t>
+          <t>2025-05-12 11:25:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:17</t>
+          <t>2025-05-12 11:25:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 14:23:33</t>
+          <t>2025-05-12 13:31:43</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3859</v>
+        <v>8681</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1955,7 +1952,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1968,7 +1965,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -1980,41 +1977,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251259</v>
+        <v>245089</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>81.9672131147541</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 14:23:33</t>
+          <t>2025-05-12 13:31:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 14:48:33</t>
+          <t>2025-05-12 14:01:43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 14:48:33</t>
+          <t>2025-05-12 14:01:43</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 08:10:31</t>
+          <t>2025-05-16 11:39:28</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5000</v>
+        <v>122665</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2023,14 +2020,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2040,7 +2037,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2052,41 +2049,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251284</v>
+        <v>251268</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-16 11:39:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-16 12:04:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-16 12:04:28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-16 12:04:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2095,17 +2092,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39747</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2113,57 +2112,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251374</v>
+        <v>235572</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>497.1454545454545</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-16 12:04:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-16 12:39:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-16 12:39:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:14</t>
+          <t>2025-05-19 07:03:47</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>27343</v>
+        <v>9958</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2172,11 +2171,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2189,7 +2188,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2201,41 +2200,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251249</v>
+        <v>251374</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>86.50909090909092</v>
+        <v>396.2753623188406</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:14</t>
+          <t>2025-05-19 07:03:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:44</t>
+          <t>2025-05-19 07:38:47</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:44</t>
+          <t>2025-05-19 07:38:47</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:14</t>
+          <t>2025-05-19 14:15:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4758</v>
+        <v>27343</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2248,7 +2247,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2261,7 +2260,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2273,41 +2272,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251462</v>
+        <v>251987</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>113.2</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:14</t>
+          <t>2025-05-19 14:15:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:44</t>
+          <t>2025-05-19 14:50:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:44</t>
+          <t>2025-05-19 14:50:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:56</t>
+          <t>2025-05-28 09:41:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6226</v>
+        <v>210526</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2316,14 +2315,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2333,7 +2332,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2345,41 +2344,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251520</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:56</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:36:26</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:36:26</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:32</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2388,70 +2387,75 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>245275</v>
+        <v>250894</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44.5</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>441.7090909090909</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:32</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:02</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:02</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-15 07:39:44</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>24294</v>
+        <v>44262</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2460,14 +2464,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39755</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2477,7 +2484,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2489,74 +2496,67 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251706</v>
+        <v>243569</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>50.79365079365079</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:20:55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:20:55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 14:57:33</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3200</v>
+        <v>2601</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2568,41 +2568,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251455</v>
+        <v>251340</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>82.765625</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 14:57:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 07:14:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 07:14:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-13 14:56:32</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5297</v>
+        <v>32800</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2611,75 +2611,70 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251391</v>
+        <v>245623</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>91.640625</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-13 14:56:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-14 07:26:32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-14 07:26:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-14 13:38:38</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5865</v>
+        <v>26419</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2688,75 +2683,70 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251395</v>
+        <v>251750</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>35.34375</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-14 13:38:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-14 13:55:38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-14 13:55:38</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-14 14:50:26</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2262</v>
+        <v>3891</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2765,75 +2755,70 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251371</v>
+        <v>243335</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-14 14:50:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-15 07:07:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-15 07:07:26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-15 14:52:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2842,77 +2827,70 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251396</v>
+        <v>251164</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>35.34375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2262</v>
+        <v>10000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2943,53 +2921,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251548</v>
+        <v>251251</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>206.90625</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 09:17:45</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>13242</v>
+        <v>15860</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2998,75 +2976,70 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250923</v>
+        <v>251580</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>109.46875</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 09:17:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 10:02:45</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 10:02:45</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 12:28:44</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7006</v>
+        <v>7153</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3075,75 +3048,70 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251225</v>
+        <v>251284</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3152,14 +3120,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N37" t="n">
         <v>39747</v>
@@ -3174,53 +3142,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.4586588541666667</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251227</v>
+        <v>251463</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-12 07:20:45</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3229,75 +3197,70 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-2.469075520833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251421</v>
+        <v>251462</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>81.9375</v>
+        <v>113.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-12 07:20:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-12 07:55:15</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-12 07:55:15</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-12 09:48:27</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5244</v>
+        <v>6226</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3306,31 +3269,24 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3342,41 +3298,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251782</v>
+        <v>251520</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D40" t="n">
-        <v>188.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-12 09:48:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-12 10:28:57</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-12 10:28:57</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-13 07:26:03</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>12073</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3385,75 +3341,70 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
-      </c>
-      <c r="N40" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-0.3458658854166667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>250894</v>
+        <v>251259</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D41" t="n">
-        <v>691.59375</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-13 07:26:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:02</t>
+          <t>2025-05-13 08:00:33</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:02</t>
+          <t>2025-05-13 08:00:33</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:38</t>
+          <t>2025-05-13 09:31:27</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>44262</v>
+        <v>5000</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3462,17 +3413,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3482,7 +3430,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3494,41 +3442,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251987</v>
+        <v>245350</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D42" t="n">
-        <v>3289.46875</v>
+        <v>508.5454545454546</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:38</t>
+          <t>2025-05-13 09:31:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:38</t>
+          <t>2025-05-13 10:03:57</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:38</t>
+          <t>2025-05-13 10:03:57</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-21 11:15:06</t>
+          <t>2025-05-14 10:32:30</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>210526</v>
+        <v>27970</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3537,14 +3485,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3554,7 +3502,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3566,41 +3514,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251340</v>
+        <v>245275</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>38.5</v>
       </c>
       <c r="D43" t="n">
-        <v>512.5</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-21 11:15:06</t>
+          <t>2025-05-14 10:32:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-21 11:38:06</t>
+          <t>2025-05-14 11:11:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-21 11:38:06</t>
+          <t>2025-05-14 11:11:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-22 12:10:36</t>
+          <t>2025-05-15 10:32:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>32800</v>
+        <v>24294</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3609,14 +3557,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3626,7 +3574,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3638,41 +3586,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251519</v>
+        <v>251050</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>205.859375</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-22 12:10:36</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-22 12:40:36</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-22 12:40:36</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-23 08:06:28</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>13175</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3681,70 +3629,75 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251562</v>
+        <v>251054</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>127.21875</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-23 08:06:28</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-23 08:21:28</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-23 08:21:28</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-23 10:28:41</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3753,70 +3706,75 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251397</v>
+        <v>251081</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>84.921875</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-23 10:28:41</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-23 10:45:41</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-23 10:45:41</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-23 12:10:36</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5435</v>
+        <v>3012</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3825,70 +3783,77 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251594</v>
+        <v>251109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D47" t="n">
-        <v>101.03125</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-23 12:10:36</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-23 12:27:36</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-23 12:27:36</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-23 14:08:38</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6466</v>
+        <v>18928</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3897,11 +3862,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3914,7 +3879,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3926,41 +3891,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251373</v>
+        <v>251547</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>267.09375</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-23 14:08:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-23 14:25:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-23 14:25:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-26 10:52:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>17094</v>
+        <v>13129</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3973,66 +3938,71 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>235572</v>
+        <v>250759</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>155.59375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-26 10:52:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-26 11:07:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-26 11:07:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-26 13:43:19</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>9958</v>
+        <v>8398</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4041,70 +4011,75 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251475</v>
+        <v>251651</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>135.640625</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-26 13:43:19</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-26 14:00:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-26 14:00:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-27 08:15:58</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8681</v>
+        <v>46830</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4113,14 +4088,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39755</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4130,7 +4108,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4142,41 +4120,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251743</v>
+        <v>250670</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>168.375</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-27 08:15:58</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-27 08:30:58</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-27 08:30:58</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-27 11:19:20</t>
+          <t>2025-05-12 09:02:47</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10776</v>
+        <v>1563</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4185,14 +4163,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4202,7 +4180,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4214,41 +4192,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251561</v>
+        <v>251475</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>84.921875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-27 11:19:20</t>
+          <t>2025-05-12 09:02:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-27 11:36:20</t>
+          <t>2025-05-12 09:32:47</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-27 11:36:20</t>
+          <t>2025-05-12 09:32:47</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-27 13:01:15</t>
+          <t>2025-05-12 11:35:03</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4261,7 +4239,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4274,7 +4252,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4286,41 +4264,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251546</v>
+        <v>251416</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>101.03125</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-27 13:01:15</t>
+          <t>2025-05-12 11:35:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-27 13:16:15</t>
+          <t>2025-05-12 11:54:03</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-27 13:16:15</t>
+          <t>2025-05-12 11:54:03</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-27 14:57:17</t>
+          <t>2025-05-12 14:32:06</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6466</v>
+        <v>11222</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4333,11 +4311,14 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
+      <c r="N53" t="n">
+        <v>39755</v>
+      </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
@@ -4346,7 +4327,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4358,41 +4339,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250819</v>
+        <v>251562</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>133.234375</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-27 14:57:17</t>
+          <t>2025-05-12 14:32:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-28 07:14:17</t>
+          <t>2025-05-12 14:47:06</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-28 07:14:17</t>
+          <t>2025-05-12 14:47:06</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-28 09:27:31</t>
+          <t>2025-05-13 08:41:47</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8527</v>
+        <v>8142</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4405,7 +4386,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4418,7 +4399,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4430,41 +4411,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251245</v>
+        <v>251453</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>11.78125</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-28 09:27:31</t>
+          <t>2025-05-13 08:41:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-28 09:42:31</t>
+          <t>2025-05-13 08:58:47</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-28 09:42:31</t>
+          <t>2025-05-13 08:58:47</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-28 09:54:18</t>
+          <t>2025-05-13 10:09:12</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>754</v>
+        <v>5000</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4473,24 +4454,31 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4502,41 +4490,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251247</v>
+        <v>251485</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>420.84375</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-28 09:54:18</t>
+          <t>2025-05-13 10:09:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-28 10:09:18</t>
+          <t>2025-05-13 10:28:12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-28 10:09:18</t>
+          <t>2025-05-13 10:28:12</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-29 09:10:09</t>
+          <t>2025-05-13 11:35:55</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>26934</v>
+        <v>4808</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4545,11 +4533,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4562,7 +4550,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4574,41 +4562,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251062</v>
+        <v>250641</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>353.5</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-29 09:10:09</t>
+          <t>2025-05-13 11:35:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-29 09:25:09</t>
+          <t>2025-05-13 11:52:55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-29 09:25:09</t>
+          <t>2025-05-13 11:52:55</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-30 07:18:39</t>
+          <t>2025-05-13 13:04:59</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>22624</v>
+        <v>5116</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4617,7 +4605,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4634,7 +4622,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4646,7 +4634,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251547</v>
+        <v>251229</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4654,33 +4642,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>184.9154929577465</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 13:04:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 13:19:59</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 13:19:59</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 09:43:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13129</v>
+        <v>18739</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4689,17 +4677,19 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="n">
-        <v>39749</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4707,23 +4697,23 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250759</v>
+        <v>251564</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4731,33 +4721,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D59" t="n">
-        <v>118.2816901408451</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 09:43:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 10:04:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 10:04:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 10:43:10</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8398</v>
+        <v>2717</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4766,41 +4756,36 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251651</v>
+        <v>251626</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4808,33 +4793,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>659.5774647887324</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 10:43:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 10:58:10</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 10:58:10</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-14 13:54:14</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>46830</v>
+        <v>12500</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4843,17 +4828,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4863,7 +4845,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4875,7 +4857,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251485</v>
+        <v>251761</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4883,33 +4865,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>67.71830985915493</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-14 13:54:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:46</t>
+          <t>2025-05-14 14:11:14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:46</t>
+          <t>2025-05-14 14:11:14</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:29</t>
+          <t>2025-05-15 09:18:16</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4808</v>
+        <v>13279</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4922,7 +4904,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4935,7 +4917,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4947,7 +4929,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245350</v>
+        <v>251464</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4955,33 +4937,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>393.943661971831</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:29</t>
+          <t>2025-05-15 09:18:16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:29</t>
+          <t>2025-05-15 09:33:16</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:29</t>
+          <t>2025-05-15 09:33:16</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:26</t>
+          <t>2025-05-15 11:14:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>27970</v>
+        <v>7153</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4990,11 +4972,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5007,7 +4989,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5019,7 +5001,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>250641</v>
+        <v>251467</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5027,33 +5009,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>72.05633802816901</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:26</t>
+          <t>2025-05-15 11:14:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:26</t>
+          <t>2025-05-15 11:33:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:26</t>
+          <t>2025-05-15 11:33:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:29</t>
+          <t>2025-05-15 13:00:42</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5116</v>
+        <v>6226</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5066,7 +5048,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5079,7 +5061,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5091,7 +5073,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251283</v>
+        <v>251557</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5102,30 +5084,30 @@
         <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>10.61971830985915</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:29</t>
+          <t>2025-05-15 13:00:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:29</t>
+          <t>2025-05-15 13:15:42</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:29</t>
+          <t>2025-05-15 13:15:42</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:06</t>
+          <t>2025-05-15 14:50:08</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>754</v>
+        <v>6705</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5134,11 +5116,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5151,7 +5133,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5163,41 +5145,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>263.9295774647887</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:06</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:06</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:06</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:02</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5206,19 +5188,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N65" t="n">
+        <v>39749</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5226,57 +5206,57 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251566</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>97.02816901408451</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:02</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:02</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:02</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:04</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6889</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5289,66 +5269,71 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251453</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:04</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:04</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:04</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:29</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5361,15 +5346,13 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+      <c r="N67" t="n">
+        <v>39749</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5377,57 +5360,57 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39742</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251564</v>
+        <v>251371</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>38.26760563380282</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:29</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5440,66 +5423,73 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251626</v>
+        <v>251396</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>176.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:49</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>12500</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5512,66 +5502,71 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251761</v>
+        <v>251548</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>187.0281690140845</v>
+        <v>206.90625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:49</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-15 07:24:49</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-15 07:24:49</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-15 10:31:50</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13279</v>
+        <v>13242</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5589,61 +5584,66 @@
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251464</v>
+        <v>250923</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>100.7464788732394</v>
+        <v>109.46875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-15 10:31:50</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-15 10:46:50</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-15 10:46:50</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-15 12:27:35</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7153</v>
+        <v>7006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5652,70 +5652,75 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251467</v>
+        <v>251225</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>87.69014084507042</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-15 12:27:35</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-15 12:46:35</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-15 12:46:35</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 14:14:16</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5724,70 +5729,75 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-0.4586588541666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251557</v>
+        <v>251227</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>94.43661971830986</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-15 14:14:16</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:16</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:16</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-16 08:03:43</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6705</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5796,70 +5806,75 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N73" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-2.469075520833333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251050</v>
+        <v>251421</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>81.9375</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5868,17 +5883,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
-      </c>
-      <c r="N74" t="n">
-        <v>39747</v>
+        <v>76</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5886,57 +5903,57 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39747</v>
+        <v>39762</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251054</v>
+        <v>251782</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5945,17 +5962,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N75" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -5963,57 +5980,57 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.3458658854166667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251081</v>
+        <v>251743</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
-        <v>42.42253521126761</v>
+        <v>168.375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 08:50:02</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 08:50:02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:38:25</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3012</v>
+        <v>10776</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6022,77 +6039,70 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251109</v>
+        <v>251566</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>266.5915492957747</v>
+        <v>107.640625</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:38:25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 11:53:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 11:53:25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 13:41:03</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>18928</v>
+        <v>6889</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6101,11 +6111,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6118,7 +6128,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6130,41 +6140,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251477</v>
+        <v>251373</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>422.5211267605634</v>
+        <v>267.09375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 13:41:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:58:03</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:58:03</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-12 10:25:09</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>29999</v>
+        <v>17094</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6173,25 +6183,20 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
-      </c>
-      <c r="N78" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6199,49 +6204,49 @@
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>250670</v>
+        <v>251561</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>22.01408450704225</v>
+        <v>84.921875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-12 10:25:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-12 10:40:09</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-12 10:40:09</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:32</t>
+          <t>2025-05-12 12:05:04</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1563</v>
+        <v>5435</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6250,14 +6255,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6279,41 +6284,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245089</v>
+        <v>251546</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>1727.676056338028</v>
+        <v>101.03125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:32</t>
+          <t>2025-05-12 12:05:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:32</t>
+          <t>2025-05-12 12:20:04</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:32</t>
+          <t>2025-05-12 12:20:04</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:12</t>
+          <t>2025-05-12 14:01:06</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>122665</v>
+        <v>6466</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6322,14 +6327,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6339,7 +6344,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6351,41 +6356,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>243569</v>
+        <v>251846</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>36.63380281690141</v>
+        <v>178</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:12</t>
+          <t>2025-05-12 14:01:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:12</t>
+          <t>2025-05-12 14:22:06</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:12</t>
+          <t>2025-05-12 14:22:06</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-15 09:54:50</t>
+          <t>2025-05-13 09:20:06</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2601</v>
+        <v>11392</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6394,14 +6399,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6411,7 +6416,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6423,41 +6428,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251750</v>
+        <v>251519</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>54.80281690140845</v>
+        <v>205.859375</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-15 09:54:50</t>
+          <t>2025-05-13 09:20:06</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-15 10:24:50</t>
+          <t>2025-05-13 09:35:06</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-15 10:24:50</t>
+          <t>2025-05-13 09:35:06</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-15 11:19:38</t>
+          <t>2025-05-13 13:00:58</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3891</v>
+        <v>13175</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6466,14 +6471,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6483,7 +6488,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6495,41 +6500,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>245623</v>
+        <v>251397</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>372.0985915492957</v>
+        <v>84.921875</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-15 11:19:38</t>
+          <t>2025-05-13 13:00:58</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-15 11:36:38</t>
+          <t>2025-05-13 13:17:58</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-15 11:36:38</t>
+          <t>2025-05-13 13:17:58</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-16 09:48:44</t>
+          <t>2025-05-13 14:42:53</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>26419</v>
+        <v>5435</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6538,14 +6543,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6555,7 +6560,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6567,41 +6572,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251164</v>
+        <v>251594</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>204.0816326530612</v>
+        <v>101.03125</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 14:42:53</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 14:59:53</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 14:59:53</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>10000</v>
+        <v>6466</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6614,71 +6619,66 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251251</v>
+        <v>251246</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>323.6734693877551</v>
+        <v>187.53125</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-14 08:59:55</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-14 08:59:55</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:45</t>
+          <t>2025-05-14 12:07:27</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>15860</v>
+        <v>12002</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6716,41 +6716,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251580</v>
+        <v>250819</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>145.9795918367347</v>
+        <v>133.234375</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:45</t>
+          <t>2025-05-14 12:07:27</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:45</t>
+          <t>2025-05-14 12:22:27</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:45</t>
+          <t>2025-05-14 12:22:27</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:44</t>
+          <t>2025-05-14 14:35:41</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>7153</v>
+        <v>8527</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6788,41 +6788,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>245090</v>
+        <v>251245</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>8470.786885245901</v>
+        <v>11.78125</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 14:35:41</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-14 14:50:41</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-14 14:50:41</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-15 07:02:28</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>516718</v>
+        <v>754</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6831,14 +6831,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6860,41 +6860,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251505</v>
+        <v>251247</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>233.6885245901639</v>
+        <v>420.84375</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-15 07:02:28</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-06-03 13:19:47</t>
+          <t>2025-05-15 07:17:28</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-06-03 13:19:47</t>
+          <t>2025-05-15 07:17:28</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-06-04 09:13:28</t>
+          <t>2025-05-15 14:18:18</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>14255</v>
+        <v>26934</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6903,11 +6903,11 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M88" t="n">
         <v>70</v>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
@@ -6932,41 +6932,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>244204</v>
+        <v>251062</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>56.91803278688525</v>
+        <v>353.5</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-06-04 09:13:28</t>
+          <t>2025-05-15 14:18:18</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-06-04 09:40:28</t>
+          <t>2025-05-15 14:33:18</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-06-04 09:40:28</t>
+          <t>2025-05-15 14:33:18</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-06-04 10:37:23</t>
+          <t>2025-05-16 12:26:48</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3472</v>
+        <v>22624</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6975,11 +6975,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
@@ -7004,41 +7004,41 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>243335</v>
+        <v>251346</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D90" t="n">
-        <v>541.0491803278688</v>
+        <v>60.296875</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-06-04 10:37:23</t>
+          <t>2025-05-16 12:26:48</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-06-04 11:17:23</t>
+          <t>2025-05-16 12:45:48</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-06-04 11:17:23</t>
+          <t>2025-05-16 12:45:48</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-06-05 12:18:26</t>
+          <t>2025-05-16 13:46:06</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>33004</v>
+        <v>3859</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7047,14 +7047,14 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M90" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>245090</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>8470.786885245901</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>516718</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,70 +635,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251742</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8524590163935</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8226</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -713,7 +716,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -731,53 +734,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251840</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -790,13 +793,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39758</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -804,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39758</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251453</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>147.5245901639344</v>
+        <v>78.125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>5000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,8 +877,10 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39746</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -881,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39742</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>244354</v>
+        <v>251396</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>70.65573770491804</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:16:42</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4310</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -944,66 +951,71 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>244204</v>
+        <v>251548</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>56.91803278688525</v>
+        <v>206.90625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 08:16:42</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:42</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:42</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:33:37</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3472</v>
+        <v>13242</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1021,61 +1033,66 @@
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251252</v>
+        <v>250923</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>247.2622950819672</v>
+        <v>109.46875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:33:37</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:37</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:37</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:10:53</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15083</v>
+        <v>7006</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1084,70 +1101,75 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251249</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 14:10:53</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 14:30:53</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 14:30:53</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:48:53</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4758</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1156,70 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251283</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>12.36065573770492</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 07:48:53</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:53</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:53</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:21:14</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1228,70 +1255,75 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251505</v>
+        <v>251421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>233.6885245901639</v>
+        <v>81.9375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 08:21:14</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 08:46:14</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 08:46:14</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:56</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14255</v>
+        <v>5244</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1300,70 +1332,77 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251424</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>158.3934426229508</v>
+        <v>188.640625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:56</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:04:56</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:04:56</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:19</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9662</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1372,70 +1411,75 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>244355</v>
+        <v>251340</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>70.65573770491804</v>
+        <v>512.5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:19</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:19</t>
+          <t>2025-05-09 10:12:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:19</t>
+          <t>2025-05-09 10:12:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 09:13:59</t>
+          <t>2025-05-12 10:44:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4310</v>
+        <v>32800</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1444,14 +1488,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1461,7 +1505,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1473,41 +1517,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>244023</v>
+        <v>251562</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>16.34426229508197</v>
+        <v>127.21875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:13:59</t>
+          <t>2025-05-12 10:44:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:43:59</t>
+          <t>2025-05-12 11:14:40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:43:59</t>
+          <t>2025-05-12 11:14:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:19</t>
+          <t>2025-05-12 13:21:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>997</v>
+        <v>8142</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1520,7 +1564,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1533,7 +1577,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1545,41 +1589,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251061</v>
+        <v>251846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>393.3934426229508</v>
+        <v>178</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:19</t>
+          <t>2025-05-12 13:21:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:19</t>
+          <t>2025-05-12 13:36:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:19</t>
+          <t>2025-05-12 13:36:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:43</t>
+          <t>2025-05-13 08:34:53</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>23997</v>
+        <v>11392</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1588,11 +1632,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1605,7 +1649,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1617,41 +1661,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251260</v>
+        <v>251397</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>153.5901639344262</v>
+        <v>84.921875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:43</t>
+          <t>2025-05-13 08:34:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:13:43</t>
+          <t>2025-05-13 08:51:53</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:13:43</t>
+          <t>2025-05-13 08:51:53</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:18</t>
+          <t>2025-05-13 10:16:48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>9369</v>
+        <v>5435</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1660,11 +1704,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1677,7 +1721,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1689,41 +1733,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251795</v>
+        <v>251594</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>307.1967213114754</v>
+        <v>101.03125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:18</t>
+          <t>2025-05-13 10:16:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-14 12:07:18</t>
+          <t>2025-05-13 10:33:48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-14 12:07:18</t>
+          <t>2025-05-13 10:33:48</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-15 09:14:30</t>
+          <t>2025-05-13 12:14:50</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18739</v>
+        <v>6466</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1732,11 +1776,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1749,7 +1793,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1761,41 +1805,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251466</v>
+        <v>244204</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>80.68115942028986</v>
+        <v>54.25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 12:14:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-13 12:29:50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-13 12:29:50</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-13 13:24:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5567</v>
+        <v>3472</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1808,7 +1852,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1821,7 +1865,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1833,41 +1877,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251465</v>
+        <v>244354</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>90.23188405797102</v>
+        <v>67.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-13 13:24:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-13 13:39:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-13 13:39:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:54</t>
+          <t>2025-05-13 14:46:26</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1880,7 +1924,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1893,7 +1937,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
@@ -1905,41 +1949,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251809</v>
+        <v>251546</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>125.8115942028985</v>
+        <v>101.03125</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:54</t>
+          <t>2025-05-13 14:46:26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:54</t>
+          <t>2025-05-14 07:03:26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:54</t>
+          <t>2025-05-14 07:03:26</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:43</t>
+          <t>2025-05-14 08:44:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8681</v>
+        <v>6466</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1952,7 +1996,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1965,7 +2009,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -1977,41 +2021,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245089</v>
+        <v>251229</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>1777.753623188406</v>
+        <v>292.796875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:43</t>
+          <t>2025-05-14 08:44:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:43</t>
+          <t>2025-05-14 09:01:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:43</t>
+          <t>2025-05-14 09:01:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-16 11:39:28</t>
+          <t>2025-05-14 13:54:15</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>122665</v>
+        <v>18739</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2020,24 +2064,31 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2049,41 +2100,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251268</v>
+        <v>251561</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>84.921875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-16 11:39:28</t>
+          <t>2025-05-14 13:54:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-16 12:04:28</t>
+          <t>2025-05-14 14:11:15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-16 12:04:28</t>
+          <t>2025-05-14 14:11:15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-16 12:04:28</t>
+          <t>2025-05-15 07:36:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2092,31 +2143,24 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2128,41 +2172,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>235572</v>
+        <v>251505</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>144.3188405797102</v>
+        <v>222.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-16 12:04:28</t>
+          <t>2025-05-15 07:36:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-16 12:39:28</t>
+          <t>2025-05-15 07:51:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-16 12:39:28</t>
+          <t>2025-05-15 07:51:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-19 07:03:47</t>
+          <t>2025-05-15 11:33:55</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9958</v>
+        <v>14255</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2171,7 +2215,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2188,7 +2232,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2200,41 +2244,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251374</v>
+        <v>250819</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>396.2753623188406</v>
+        <v>133.234375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:03:47</t>
+          <t>2025-05-15 11:33:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:38:47</t>
+          <t>2025-05-15 11:50:55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:38:47</t>
+          <t>2025-05-15 11:50:55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-19 14:15:04</t>
+          <t>2025-05-15 14:04:09</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>27343</v>
+        <v>8527</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2243,11 +2287,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2260,7 +2304,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2272,41 +2316,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251987</v>
+        <v>251245</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>3051.101449275362</v>
+        <v>11.78125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-19 14:15:04</t>
+          <t>2025-05-15 14:04:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-19 14:50:04</t>
+          <t>2025-05-15 14:19:09</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-19 14:50:04</t>
+          <t>2025-05-15 14:19:09</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-28 09:41:10</t>
+          <t>2025-05-15 14:30:56</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>210526</v>
+        <v>754</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2315,14 +2359,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2332,7 +2376,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2344,41 +2388,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251247</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5211267605634</v>
+        <v>420.84375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-15 14:30:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-15 14:45:56</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-15 14:45:56</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-16 13:46:46</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>26934</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2387,75 +2431,70 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250894</v>
+        <v>251062</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>623.4084507042254</v>
+        <v>353.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-16 13:46:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-16 14:01:46</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-16 14:01:46</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-19 11:55:16</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>44262</v>
+        <v>22624</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2464,17 +2503,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2484,7 +2520,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2496,41 +2532,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>243569</v>
+        <v>245275</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
-        <v>36.63380281690141</v>
+        <v>379.59375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-19 11:55:16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:55</t>
+          <t>2025-05-19 12:26:16</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:55</t>
+          <t>2025-05-19 12:26:16</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:33</t>
+          <t>2025-05-20 10:45:52</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2601</v>
+        <v>24294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2539,14 +2575,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2556,7 +2592,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2568,41 +2604,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251340</v>
+        <v>251284</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D30" t="n">
-        <v>461.9718309859155</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:33</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:33</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:33</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:56:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>32800</v>
+        <v>16340</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2611,70 +2647,75 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N30" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245623</v>
+        <v>251374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>372.0985915492957</v>
+        <v>497.1454545454545</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:56:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:32</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:32</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:38</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>26419</v>
+        <v>27343</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2683,14 +2724,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2700,7 +2741,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2712,41 +2753,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251750</v>
+        <v>235572</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D32" t="n">
-        <v>54.80281690140845</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:38</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:38</t>
+          <t>2025-05-12 13:59:44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:38</t>
+          <t>2025-05-12 13:59:44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 14:50:26</t>
+          <t>2025-05-13 09:00:47</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3891</v>
+        <v>9958</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,14 +2796,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2772,7 +2813,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2784,41 +2825,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>243335</v>
+        <v>251249</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>464.8450704225352</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 14:50:26</t>
+          <t>2025-05-13 09:00:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:26</t>
+          <t>2025-05-13 09:33:17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:26</t>
+          <t>2025-05-13 09:33:17</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-15 14:52:16</t>
+          <t>2025-05-13 10:59:48</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>33004</v>
+        <v>4758</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2827,14 +2868,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2844,7 +2885,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2856,41 +2897,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251164</v>
+        <v>251520</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>55</v>
+        <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>204.0816326530612</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 10:59:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 11:32:18</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 11:32:18</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:29:23</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2899,75 +2940,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251251</v>
+        <v>251346</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>323.6734693877551</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:29:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-14 09:01:53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-14 09:01:53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:45</t>
+          <t>2025-05-14 10:12:03</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15860</v>
+        <v>3859</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2976,11 +3012,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2993,7 +3029,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3005,41 +3041,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251580</v>
+        <v>251259</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>145.9795918367347</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:45</t>
+          <t>2025-05-14 10:12:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:45</t>
+          <t>2025-05-14 10:44:33</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:45</t>
+          <t>2025-05-14 10:44:33</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:44</t>
+          <t>2025-05-14 12:15:27</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7153</v>
+        <v>5000</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3052,7 +3088,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3065,7 +3101,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3077,41 +3113,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251284</v>
+        <v>251547</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>297.0909090909091</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16340</v>
+        <v>13129</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3120,17 +3156,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
       <c r="N37" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3138,57 +3174,57 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251463</v>
+        <v>250759</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>126.6727272727273</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6967</v>
+        <v>8398</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3197,70 +3233,75 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251462</v>
+        <v>251651</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>113.2</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:15</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:15</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:27</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6226</v>
+        <v>46830</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3269,14 +3310,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39755</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3286,7 +3330,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3298,41 +3342,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251520</v>
+        <v>245089</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:27</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:57</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:57</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:03</t>
+          <t>2025-05-15 13:28:27</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>122665</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3341,14 +3385,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3358,7 +3402,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3370,41 +3414,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251259</v>
+        <v>251475</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>90.90909090909091</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:03</t>
+          <t>2025-05-15 13:28:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:33</t>
+          <t>2025-05-15 13:58:27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:33</t>
+          <t>2025-05-15 13:58:27</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:27</t>
+          <t>2025-05-16 08:00:43</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5000</v>
+        <v>8681</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3417,7 +3461,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3430,7 +3474,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3442,41 +3486,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245350</v>
+        <v>251809</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>508.5454545454546</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:27</t>
+          <t>2025-05-16 08:00:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:57</t>
+          <t>2025-05-16 08:15:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:57</t>
+          <t>2025-05-16 08:15:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-14 10:32:30</t>
+          <t>2025-05-16 10:17:59</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>27970</v>
+        <v>8681</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3485,11 +3529,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3502,7 +3546,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3514,41 +3558,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>245275</v>
+        <v>251564</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>441.7090909090909</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-14 10:32:30</t>
+          <t>2025-05-16 10:17:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:00</t>
+          <t>2025-05-16 10:34:59</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:00</t>
+          <t>2025-05-16 10:34:59</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:43</t>
+          <t>2025-05-16 11:13:15</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>24294</v>
+        <v>2717</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3557,11 +3601,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3574,7 +3618,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3586,41 +3630,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251050</v>
+        <v>251626</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-16 11:13:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-16 11:28:15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-16 11:28:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-16 14:24:18</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3629,75 +3673,70 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251054</v>
+        <v>251373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-16 14:24:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-16 14:43:18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-16 14:43:18</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-19 10:44:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17094</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3706,75 +3745,70 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251081</v>
+        <v>250641</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>42.42253521126761</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-19 10:44:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-19 11:01:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-19 11:01:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-19 12:13:07</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3012</v>
+        <v>5116</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3783,77 +3817,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251109</v>
+        <v>245350</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>266.5915492957747</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-19 12:13:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-19 12:36:07</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-19 12:36:07</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-20 11:10:04</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>18928</v>
+        <v>27970</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3862,11 +3889,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3879,7 +3906,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3891,7 +3918,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251547</v>
+        <v>251485</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3899,33 +3926,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>184.9154929577465</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-20 11:10:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-20 11:35:04</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-20 11:35:04</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-20 12:42:47</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13129</v>
+        <v>4808</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3938,37 +3965,32 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>250759</v>
+        <v>251761</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3976,33 +3998,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>118.2816901408451</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-20 12:42:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-20 12:59:47</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-20 12:59:47</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-21 08:06:49</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>8398</v>
+        <v>13279</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4011,41 +4033,36 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251651</v>
+        <v>251464</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4053,33 +4070,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>659.5774647887324</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-21 08:06:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-21 08:21:49</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-21 08:21:49</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-21 10:02:33</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46830</v>
+        <v>7153</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4088,17 +4105,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4108,7 +4122,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4120,7 +4134,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250670</v>
+        <v>251462</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4128,33 +4142,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>22.01408450704225</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-21 10:02:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:46</t>
+          <t>2025-05-21 10:21:33</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:46</t>
+          <t>2025-05-21 10:21:33</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:47</t>
+          <t>2025-05-21 11:49:15</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1563</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4163,14 +4177,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4180,7 +4194,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4192,7 +4206,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251475</v>
+        <v>251519</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4200,33 +4214,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>122.2676056338028</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:47</t>
+          <t>2025-05-21 11:49:15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:47</t>
+          <t>2025-05-21 12:04:15</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:47</t>
+          <t>2025-05-21 12:04:15</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:03</t>
+          <t>2025-05-22 07:09:49</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>13175</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4239,7 +4253,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4252,7 +4266,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4264,7 +4278,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251416</v>
+        <v>251467</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4272,33 +4286,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>158.056338028169</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:03</t>
+          <t>2025-05-22 07:09:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:03</t>
+          <t>2025-05-22 07:24:49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:03</t>
+          <t>2025-05-22 07:24:49</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:06</t>
+          <t>2025-05-22 08:52:30</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>11222</v>
+        <v>6226</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4316,9 +4330,6 @@
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="n">
-        <v>39755</v>
-      </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
@@ -4327,7 +4338,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4339,7 +4350,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4350,30 +4361,30 @@
         <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>114.6760563380282</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:06</t>
+          <t>2025-05-22 08:52:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:06</t>
+          <t>2025-05-22 09:07:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:06</t>
+          <t>2025-05-22 09:07:30</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:47</t>
+          <t>2025-05-22 10:41:56</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4411,61 +4422,61 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251453</v>
+        <v>251706</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>70.4225352112676</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:47</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:58:47</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:58:47</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:12</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39764 (esterno)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4474,11 +4485,11 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>39742</v>
+        <v>39764</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4490,41 +4501,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251485</v>
+        <v>251477</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>67.71830985915493</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:12</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:12</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:12</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:55</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4808</v>
+        <v>29999</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4533,70 +4544,75 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>250894</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>72.05633802816901</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:55</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:55</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:55</t>
+          <t>2025-05-09 11:38:31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:59</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>44262</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4605,14 +4621,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39755</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4622,7 +4641,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4634,41 +4653,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251229</v>
+        <v>251987</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>263.9295774647887</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:59</t>
+          <t>2025-05-12 14:01:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:59</t>
+          <t>2025-05-12 14:18:55</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:59</t>
+          <t>2025-05-12 14:18:55</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:54</t>
+          <t>2025-05-21 07:44:05</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>18739</v>
+        <v>210526</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4677,31 +4696,24 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4713,41 +4725,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251564</v>
+        <v>243569</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>21</v>
       </c>
       <c r="D59" t="n">
-        <v>38.26760563380282</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:54</t>
+          <t>2025-05-21 07:44:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:54</t>
+          <t>2025-05-21 08:05:05</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:54</t>
+          <t>2025-05-21 08:05:05</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:10</t>
+          <t>2025-05-21 08:41:43</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2717</v>
+        <v>2601</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4756,14 +4768,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4773,7 +4785,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4785,41 +4797,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251626</v>
+        <v>251750</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>176.056338028169</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:10</t>
+          <t>2025-05-21 08:41:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:58:10</t>
+          <t>2025-05-21 09:11:43</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:58:10</t>
+          <t>2025-05-21 09:11:43</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:14</t>
+          <t>2025-05-21 10:06:31</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12500</v>
+        <v>3891</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4828,14 +4840,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4845,7 +4857,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4857,41 +4869,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251761</v>
+        <v>245623</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>187.0281690140845</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:14</t>
+          <t>2025-05-21 10:06:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:11:14</t>
+          <t>2025-05-21 10:23:31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:11:14</t>
+          <t>2025-05-21 10:23:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:16</t>
+          <t>2025-05-22 08:35:37</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13279</v>
+        <v>26419</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4900,14 +4912,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4917,7 +4929,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4929,41 +4941,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251464</v>
+        <v>251050</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D62" t="n">
-        <v>100.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:16</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:33:16</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:33:16</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-15 11:14:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4972,70 +4984,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251467</v>
+        <v>251054</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>87.69014084507042</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-15 11:14:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-15 13:00:42</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5044,70 +5061,75 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251557</v>
+        <v>251081</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D64" t="n">
-        <v>94.43661971830986</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-15 13:00:42</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-15 13:15:42</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-15 13:15:42</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-15 14:50:08</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6705</v>
+        <v>3012</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5116,70 +5138,77 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>251109</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>18928</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5188,75 +5217,70 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>250670</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>25.62295081967213</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:27:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:27:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:52:37</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>1563</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5265,75 +5289,70 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
-      </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>245090</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:52:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 08:19:37</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 08:19:37</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-06-03 13:30:24</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>516718</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5342,75 +5361,70 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251371</v>
+        <v>243335</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-06-03 13:30:24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-03 14:12:24</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-03 14:12:24</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 07:13:27</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5419,77 +5433,70 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251396</v>
+        <v>251283</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>35.34375</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 07:13:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:57:27</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:57:27</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 08:09:49</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2262</v>
+        <v>754</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5498,7 +5505,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5507,66 +5514,61 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251548</v>
+        <v>251246</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>206.90625</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 08:09:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 08:34:49</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 08:34:49</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 11:51:34</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13242</v>
+        <v>12002</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5575,75 +5577,70 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250923</v>
+        <v>251742</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>109.46875</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7006</v>
+        <v>8226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5652,14 +5649,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N71" t="n">
         <v>39749</v>
@@ -5674,53 +5671,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5729,17 +5726,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N72" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5747,57 +5744,57 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-0.4586588541666667</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5806,14 +5803,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N73" t="n">
         <v>39746</v>
@@ -5828,53 +5825,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-2.469075520833333</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251421</v>
+        <v>251416</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>81.9375</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5244</v>
+        <v>11222</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5883,31 +5880,27 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5919,41 +5912,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251782</v>
+        <v>251580</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>188.640625</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-09 12:37:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>12073</v>
+        <v>7153</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5962,36 +5955,31 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>76</v>
-      </c>
-      <c r="N75" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-0.3458658854166667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6000,33 +5988,33 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>168.375</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-09 12:37:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:50:02</t>
+          <t>2025-05-09 12:57:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:50:02</t>
+          <t>2025-05-09 12:57:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:25</t>
+          <t>2025-05-12 07:53:56</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6068,41 +6056,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251566</v>
+        <v>251463</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>107.640625</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:25</t>
+          <t>2025-05-12 07:53:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:53:25</t>
+          <t>2025-05-12 08:13:56</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:53:25</t>
+          <t>2025-05-12 08:13:56</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:03</t>
+          <t>2025-05-12 10:08:08</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6889</v>
+        <v>6967</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6128,7 +6116,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6140,41 +6128,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251373</v>
+        <v>251566</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>267.09375</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:03</t>
+          <t>2025-05-12 10:08:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:03</t>
+          <t>2025-05-12 10:28:08</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:03</t>
+          <t>2025-05-12 10:28:08</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:09</t>
+          <t>2025-05-12 12:21:04</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>17094</v>
+        <v>6889</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6187,7 +6175,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6200,7 +6188,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6212,41 +6200,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251561</v>
+        <v>251424</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>84.921875</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:09</t>
+          <t>2025-05-12 12:21:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 10:40:09</t>
+          <t>2025-05-12 12:41:04</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 10:40:09</t>
+          <t>2025-05-12 12:41:04</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:04</t>
+          <t>2025-05-13 07:19:28</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>5435</v>
+        <v>9662</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6259,7 +6247,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6284,41 +6272,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251546</v>
+        <v>244355</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>101.03125</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:04</t>
+          <t>2025-05-13 07:19:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-12 12:20:04</t>
+          <t>2025-05-13 07:39:28</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-12 12:20:04</t>
+          <t>2025-05-13 07:39:28</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:06</t>
+          <t>2025-05-13 08:50:07</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6331,7 +6319,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6344,7 +6332,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6356,41 +6344,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251846</v>
+        <v>251252</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>178</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:06</t>
+          <t>2025-05-13 08:50:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:06</t>
+          <t>2025-05-13 09:20:07</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:06</t>
+          <t>2025-05-13 09:20:07</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-13 09:20:06</t>
+          <t>2025-05-13 13:27:23</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>11392</v>
+        <v>15083</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6399,11 +6387,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6416,7 +6404,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6428,41 +6416,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251519</v>
+        <v>244023</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>205.859375</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 09:20:06</t>
+          <t>2025-05-13 13:27:23</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:06</t>
+          <t>2025-05-13 13:47:23</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:06</t>
+          <t>2025-05-13 13:47:23</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:58</t>
+          <t>2025-05-13 14:03:44</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>13175</v>
+        <v>997</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6475,7 +6463,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6488,7 +6476,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6500,41 +6488,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251397</v>
+        <v>251061</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>84.921875</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:58</t>
+          <t>2025-05-13 14:03:44</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-13 13:17:58</t>
+          <t>2025-05-13 14:23:44</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-13 13:17:58</t>
+          <t>2025-05-13 14:23:44</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:53</t>
+          <t>2025-05-14 12:57:07</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5435</v>
+        <v>23997</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6543,11 +6531,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6560,7 +6548,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6572,41 +6560,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251594</v>
+        <v>251260</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>101.03125</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:53</t>
+          <t>2025-05-14 12:57:07</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-13 14:59:53</t>
+          <t>2025-05-14 13:17:07</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-13 14:59:53</t>
+          <t>2025-05-14 13:17:07</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:40:55</t>
+          <t>2025-05-15 07:50:43</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6466</v>
+        <v>9369</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6615,11 +6603,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6632,7 +6620,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6644,41 +6632,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251246</v>
+        <v>251795</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>187.53125</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:40:55</t>
+          <t>2025-05-15 07:50:43</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:55</t>
+          <t>2025-05-15 08:10:43</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:55</t>
+          <t>2025-05-15 08:10:43</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 12:07:27</t>
+          <t>2025-05-15 13:17:55</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>12002</v>
+        <v>18739</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6687,7 +6675,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -6704,7 +6692,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6716,41 +6704,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>250819</v>
+        <v>251466</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>133.234375</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 12:07:27</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 12:22:27</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 12:22:27</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:41</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>8527</v>
+        <v>5567</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6763,7 +6751,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6776,7 +6764,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6788,41 +6776,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251245</v>
+        <v>251465</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>11.78125</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:41</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 14:50:41</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 14:50:41</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-15 07:02:28</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6831,11 +6819,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6848,7 +6836,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6860,41 +6848,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251247</v>
+        <v>251268</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D88" t="n">
-        <v>420.84375</v>
+        <v>0</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-15 07:02:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-15 07:17:28</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-15 07:17:28</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-15 14:18:18</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>26934</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6903,70 +6891,77 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251062</v>
+        <v>251164</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D89" t="n">
-        <v>353.5</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-15 14:18:18</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-15 14:33:18</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-15 14:33:18</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-16 12:26:48</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>22624</v>
+        <v>10000</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6975,7 +6970,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -6984,61 +6979,66 @@
       <c r="M89" t="n">
         <v>70</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
+      <c r="N89" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251346</v>
+        <v>251251</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>60.296875</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-16 12:26:48</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-16 12:45:48</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-16 12:45:48</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-16 13:46:06</t>
+          <t>2025-05-09 09:56:45</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3859</v>
+        <v>15860</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7047,11 +7047,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M90" t="n">
         <v>70</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>82.765625</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,53 +580,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251251</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>223.3802816901408</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 09:24:34</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>15860</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -721,66 +721,61 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251346</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 09:24:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 09:43:34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 09:43:34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:55</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,73 +788,66 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251453</v>
+        <v>251246</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>78.125</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-09 10:56:55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-09 10:56:55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 13:45:58</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5000</v>
+        <v>12002</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,77 +856,70 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251396</v>
+        <v>251283</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 13:45:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-09 14:00:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-09 14:00:58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-09 14:11:35</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>754</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,7 +928,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -956,66 +937,61 @@
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251548</v>
+        <v>251505</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>206.90625</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-09 14:11:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-09 14:28:35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-09 14:28:35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-12 09:49:21</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13242</v>
+        <v>14255</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,71 +1004,66 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250923</v>
+        <v>251465</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>109.46875</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-12 09:49:21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-12 10:10:21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-12 10:10:21</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-12 11:38:03</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7006</v>
+        <v>6226</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,75 +1072,70 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251416</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-12 11:38:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 11:53:03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 11:53:03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 14:31:06</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,75 +1144,73 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251564</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 14:31:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-12 14:48:06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-12 14:48:06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-13 07:26:22</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2717</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,75 +1219,70 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251421</v>
+        <v>251626</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>81.9375</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-13 07:26:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-13 07:41:22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-13 07:41:22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-13 10:37:26</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5244</v>
+        <v>12500</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,77 +1291,70 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>251761</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>188.640625</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-13 10:37:26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-13 10:54:26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-13 10:54:26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-13 14:01:27</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>13279</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,75 +1363,70 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251340</v>
+        <v>251464</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>512.5</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-13 14:01:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:12:10</t>
+          <t>2025-05-13 14:16:27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:12:10</t>
+          <t>2025-05-13 14:16:27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:40</t>
+          <t>2025-05-14 07:57:12</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>32800</v>
+        <v>7153</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,14 +1435,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1505,7 +1452,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1517,41 +1464,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251562</v>
+        <v>251467</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>127.21875</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:40</t>
+          <t>2025-05-14 07:57:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 11:14:40</t>
+          <t>2025-05-14 08:16:12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 11:14:40</t>
+          <t>2025-05-14 08:16:12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:53</t>
+          <t>2025-05-14 09:43:54</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8142</v>
+        <v>6226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1577,7 +1524,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1589,41 +1536,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251846</v>
+        <v>251557</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>178</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:53</t>
+          <t>2025-05-14 09:43:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:53</t>
+          <t>2025-05-14 09:58:54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:53</t>
+          <t>2025-05-14 09:58:54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:34:53</t>
+          <t>2025-05-14 11:33:20</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11392</v>
+        <v>6705</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1649,7 +1596,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1661,41 +1608,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251397</v>
+        <v>251485</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>84.921875</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:34:53</t>
+          <t>2025-05-14 11:33:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:53</t>
+          <t>2025-05-14 11:54:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:53</t>
+          <t>2025-05-14 11:54:20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:48</t>
+          <t>2025-05-14 13:02:03</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5435</v>
+        <v>4808</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1708,7 +1655,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1721,7 +1668,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1733,41 +1680,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251594</v>
+        <v>251252</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>101.03125</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:48</t>
+          <t>2025-05-14 13:02:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:48</t>
+          <t>2025-05-14 13:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:48</t>
+          <t>2025-05-14 13:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:14:50</t>
+          <t>2025-05-15 08:51:29</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6466</v>
+        <v>15083</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1776,11 +1723,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1793,7 +1740,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1805,41 +1752,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>244204</v>
+        <v>251987</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>54.25</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:14:50</t>
+          <t>2025-05-15 08:51:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:50</t>
+          <t>2025-05-15 09:21:29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:50</t>
+          <t>2025-05-15 09:21:29</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:05</t>
+          <t>2025-05-23 10:46:38</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3472</v>
+        <v>210526</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1848,14 +1795,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1865,7 +1812,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1877,41 +1824,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>244354</v>
+        <v>251742</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>67.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:05</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:05</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:05</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:26</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4310</v>
+        <v>8226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1929,61 +1876,66 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251546</v>
+        <v>251840</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>101.03125</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:26</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:03:26</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:03:26</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:44:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6466</v>
+        <v>5714</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2001,61 +1953,66 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>292.796875</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 08:44:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:15</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2064,19 +2021,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2084,57 +2039,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251561</v>
+        <v>244204</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>84.921875</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:15</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-14 14:11:15</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-14 14:11:15</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:11</t>
+          <t>2025-05-09 08:02:58</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5435</v>
+        <v>3472</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2147,7 +2102,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2160,7 +2115,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2172,41 +2127,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251505</v>
+        <v>251743</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>222.734375</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:11</t>
+          <t>2025-05-09 08:02:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 07:51:11</t>
+          <t>2025-05-09 08:22:58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 07:51:11</t>
+          <t>2025-05-09 08:22:58</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:55</t>
+          <t>2025-05-09 11:19:37</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>14255</v>
+        <v>10776</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2219,7 +2174,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2232,7 +2187,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2244,41 +2199,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250819</v>
+        <v>251580</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>133.234375</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:55</t>
+          <t>2025-05-09 11:19:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:50:55</t>
+          <t>2025-05-09 11:39:37</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:50:55</t>
+          <t>2025-05-09 11:39:37</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-15 14:04:09</t>
+          <t>2025-05-09 13:36:53</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8527</v>
+        <v>7153</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2291,7 +2246,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2304,7 +2259,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2316,41 +2271,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251245</v>
+        <v>244354</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>11.78125</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-15 14:04:09</t>
+          <t>2025-05-09 13:36:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-15 14:19:09</t>
+          <t>2025-05-09 13:56:53</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-15 14:19:09</t>
+          <t>2025-05-09 13:56:53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-15 14:30:56</t>
+          <t>2025-05-12 07:07:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>754</v>
+        <v>4310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2359,11 +2314,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2376,7 +2331,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2388,41 +2343,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251247</v>
+        <v>251475</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>420.84375</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-15 14:30:56</t>
+          <t>2025-05-12 07:07:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-15 14:45:56</t>
+          <t>2025-05-12 07:27:32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-15 14:45:56</t>
+          <t>2025-05-12 07:27:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 13:46:46</t>
+          <t>2025-05-12 09:49:51</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>26934</v>
+        <v>8681</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2431,11 +2386,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2448,7 +2403,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2460,41 +2415,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251062</v>
+        <v>251424</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>353.5</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 13:46:46</t>
+          <t>2025-05-12 09:49:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:01:46</t>
+          <t>2025-05-12 10:09:51</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:01:46</t>
+          <t>2025-05-12 10:09:51</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 11:55:16</t>
+          <t>2025-05-12 12:48:14</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>22624</v>
+        <v>9662</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2503,11 +2458,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2520,7 +2475,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2532,41 +2487,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>245275</v>
+        <v>244355</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>379.59375</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 11:55:16</t>
+          <t>2025-05-12 12:48:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19 12:26:16</t>
+          <t>2025-05-12 13:08:14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-19 12:26:16</t>
+          <t>2025-05-12 13:08:14</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-20 10:45:52</t>
+          <t>2025-05-12 14:18:54</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>24294</v>
+        <v>4310</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2575,11 +2530,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2592,7 +2547,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2604,41 +2559,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251284</v>
+        <v>251229</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>297.0909090909091</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 14:18:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 14:48:54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 14:48:54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:56:05</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>16340</v>
+        <v>18739</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2647,17 +2602,19 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39747</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2665,57 +2622,57 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251374</v>
+        <v>244023</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>497.1454545454545</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:56:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-13 12:16:05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-13 12:16:05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:14</t>
+          <t>2025-05-13 12:32:26</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27343</v>
+        <v>997</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2724,11 +2681,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2741,7 +2698,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2753,41 +2710,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>235572</v>
+        <v>251061</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>181.0545454545455</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:14</t>
+          <t>2025-05-13 12:32:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:44</t>
+          <t>2025-05-13 12:52:26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:44</t>
+          <t>2025-05-13 12:52:26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:47</t>
+          <t>2025-05-14 11:25:50</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9958</v>
+        <v>23997</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2796,11 +2753,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2813,7 +2770,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2825,41 +2782,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251249</v>
+        <v>251260</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32.5</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>86.50909090909092</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:47</t>
+          <t>2025-05-14 11:25:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:33:17</t>
+          <t>2025-05-14 11:45:50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:33:17</t>
+          <t>2025-05-14 11:45:50</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:48</t>
+          <t>2025-05-14 14:19:25</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4758</v>
+        <v>9369</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2868,7 +2825,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2885,7 +2842,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2897,41 +2854,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251520</v>
+        <v>251795</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>297.0909090909091</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:48</t>
+          <t>2025-05-14 14:19:25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:32:18</t>
+          <t>2025-05-14 14:39:25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:32:18</t>
+          <t>2025-05-14 14:39:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-05-15 11:46:37</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>16340</v>
+        <v>18739</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2940,11 +2897,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2957,7 +2914,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2969,41 +2926,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251346</v>
+        <v>243335</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>70.16363636363636</v>
+        <v>478.3188405797101</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:53</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:53</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 10:12:03</t>
+          <t>2025-05-13 07:28:19</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3859</v>
+        <v>33004</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3012,14 +2969,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3029,7 +2986,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3041,41 +2998,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251259</v>
+        <v>251809</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>90.90909090909091</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 10:12:03</t>
+          <t>2025-05-13 07:28:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 10:44:33</t>
+          <t>2025-05-13 07:58:19</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 10:44:33</t>
+          <t>2025-05-13 07:58:19</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:15:27</t>
+          <t>2025-05-13 10:04:07</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5000</v>
+        <v>8681</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3088,7 +3045,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3101,7 +3058,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3113,41 +3070,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251547</v>
+        <v>251846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>184.9154929577465</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 10:04:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 10:39:07</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 10:39:07</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 13:24:13</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13129</v>
+        <v>11392</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3160,71 +3117,66 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>250759</v>
+        <v>251466</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>118.2816901408451</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 13:24:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-13 13:54:13</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-13 13:54:13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 07:14:54</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8398</v>
+        <v>5567</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3233,75 +3185,70 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251651</v>
+        <v>250641</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>659.5774647887324</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 07:14:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 07:54:54</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 07:54:54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-14 09:09:03</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>46830</v>
+        <v>5116</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3310,17 +3257,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3330,7 +3274,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3342,41 +3286,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245089</v>
+        <v>251374</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>1727.676056338028</v>
+        <v>396.2753623188406</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:46</t>
+          <t>2025-05-14 09:09:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:46</t>
+          <t>2025-05-14 09:39:03</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:46</t>
+          <t>2025-05-14 09:39:03</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-15 13:28:27</t>
+          <t>2025-05-15 08:15:20</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>122665</v>
+        <v>27343</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3385,14 +3329,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3402,7 +3346,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3414,41 +3358,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251475</v>
+        <v>251477</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>122.2676056338028</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-15 13:28:27</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-15 13:58:27</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-15 13:58:27</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-16 08:00:43</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8681</v>
+        <v>29999</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3457,70 +3401,75 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251809</v>
+        <v>250670</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>122.2676056338028</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-16 08:00:43</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-16 08:15:43</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-16 08:15:43</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-16 10:17:59</t>
+          <t>2025-05-09 11:58:32</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8681</v>
+        <v>1563</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3529,14 +3478,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3546,7 +3495,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3558,41 +3507,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251564</v>
+        <v>250894</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>38.26760563380282</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-16 10:17:59</t>
+          <t>2025-05-09 11:58:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-16 10:34:59</t>
+          <t>2025-05-09 12:15:32</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-16 10:34:59</t>
+          <t>2025-05-09 12:15:32</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:15</t>
+          <t>2025-05-12 14:38:56</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2717</v>
+        <v>44262</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3601,14 +3550,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N43" t="n">
+        <v>39755</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3618,7 +3570,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3630,41 +3582,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251626</v>
+        <v>243569</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>176.056338028169</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:15</t>
+          <t>2025-05-12 14:38:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-16 11:28:15</t>
+          <t>2025-05-12 14:57:56</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-16 11:28:15</t>
+          <t>2025-05-12 14:57:56</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-16 14:24:18</t>
+          <t>2025-05-13 07:34:34</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12500</v>
+        <v>2601</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3673,14 +3625,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3690,7 +3642,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3702,41 +3654,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251373</v>
+        <v>251340</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>240.7605633802817</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-16 14:24:18</t>
+          <t>2025-05-13 07:34:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-16 14:43:18</t>
+          <t>2025-05-13 07:51:34</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-16 14:43:18</t>
+          <t>2025-05-13 07:51:34</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-19 10:44:04</t>
+          <t>2025-05-14 07:33:32</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17094</v>
+        <v>32800</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3745,14 +3697,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3774,41 +3726,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>250641</v>
+        <v>245623</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>72.05633802816901</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-19 10:44:04</t>
+          <t>2025-05-14 07:33:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-19 11:01:04</t>
+          <t>2025-05-14 08:03:32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-19 11:01:04</t>
+          <t>2025-05-14 08:03:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-19 12:13:07</t>
+          <t>2025-05-14 14:15:38</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5116</v>
+        <v>26419</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3817,14 +3769,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3834,7 +3786,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3846,41 +3798,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>245350</v>
+        <v>251750</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>393.943661971831</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-19 12:13:07</t>
+          <t>2025-05-14 14:15:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-19 12:36:07</t>
+          <t>2025-05-14 14:32:38</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-19 12:36:07</t>
+          <t>2025-05-14 14:32:38</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-20 11:10:04</t>
+          <t>2025-05-15 07:27:27</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>27970</v>
+        <v>3891</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3889,14 +3841,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3906,7 +3858,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3918,41 +3870,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251485</v>
+        <v>251268</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>67.71830985915493</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-20 11:10:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-20 11:35:04</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-20 11:35:04</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-20 12:42:47</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3961,70 +3913,77 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251761</v>
+        <v>251164</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D49" t="n">
-        <v>187.0281690140845</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-20 12:42:47</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-20 12:59:47</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-20 12:59:47</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-21 08:06:49</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13279</v>
+        <v>10000</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4037,66 +3996,71 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
+      <c r="N49" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251464</v>
+        <v>251562</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>100.7464788732394</v>
+        <v>166.1632653061224</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-21 08:06:49</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-21 08:21:49</t>
+          <t>2025-05-08 12:53:04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-21 08:21:49</t>
+          <t>2025-05-08 12:53:04</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-21 10:02:33</t>
+          <t>2025-05-09 07:39:14</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>7153</v>
+        <v>8142</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4109,7 +4073,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4122,7 +4086,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4138,33 +4102,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>87.69014084507042</v>
+        <v>127.0612244897959</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-21 10:02:33</t>
+          <t>2025-05-09 07:39:14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-21 10:21:33</t>
+          <t>2025-05-09 08:14:14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-21 10:21:33</t>
+          <t>2025-05-09 08:14:14</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-21 11:49:15</t>
+          <t>2025-05-09 10:21:18</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4206,41 +4170,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251519</v>
+        <v>251455</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>185.5633802816901</v>
+        <v>82.765625</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-21 11:49:15</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-21 12:04:15</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-21 12:04:15</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-22 07:09:49</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>13175</v>
+        <v>5297</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4253,66 +4217,71 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251467</v>
+        <v>251391</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>87.69014084507042</v>
+        <v>91.640625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-22 07:09:49</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-22 07:24:49</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-22 07:24:49</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-22 08:52:30</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6226</v>
+        <v>5865</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4325,66 +4294,71 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251557</v>
+        <v>251395</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>94.43661971830986</v>
+        <v>35.34375</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-22 08:52:30</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-22 09:07:30</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-22 09:07:30</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-22 10:41:56</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6705</v>
+        <v>2262</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4397,86 +4371,91 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251706</v>
+        <v>251371</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4485,57 +4464,57 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>39764</v>
+        <v>39666</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251477</v>
+        <v>251453</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>422.5211267605634</v>
+        <v>78.125</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>29999</v>
+        <v>5000</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,17 +4523,19 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4562,7 +4543,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>39760</v>
+        <v>39742</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4570,49 +4551,49 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250894</v>
+        <v>251396</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
-        <v>623.4084507042254</v>
+        <v>35.34375</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:31</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4621,73 +4602,75 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N57" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251987</v>
+        <v>251548</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>2965.154929577465</v>
+        <v>206.90625</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:55</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:55</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:55</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-21 07:44:05</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>210526</v>
+        <v>13242</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4696,70 +4679,75 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243569</v>
+        <v>250923</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
-        <v>36.63380281690141</v>
+        <v>109.46875</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-21 07:44:05</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-21 08:05:05</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-21 08:05:05</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-21 08:41:43</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2601</v>
+        <v>7006</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4772,66 +4760,71 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251750</v>
+        <v>251225</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>54.80281690140845</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-21 08:41:43</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-21 09:11:43</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-21 09:11:43</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-21 10:06:31</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3891</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4844,66 +4837,71 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>152</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245623</v>
+        <v>251227</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-21 10:06:31</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-21 10:23:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-21 10:23:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-22 08:35:37</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4916,66 +4914,71 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251050</v>
+        <v>251421</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>81.9375</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4984,17 +4987,19 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="N62" t="n">
-        <v>39747</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5002,57 +5007,57 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>39747</v>
+        <v>39762</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251054</v>
+        <v>251782</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5061,17 +5066,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N63" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5079,57 +5084,57 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251081</v>
+        <v>251651</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>42.42253521126761</v>
+        <v>731.71875</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 14:25:53</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3012</v>
+        <v>46830</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5138,77 +5143,73 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N64" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251109</v>
+        <v>245089</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>266.5915492957747</v>
+        <v>1916.640625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 14:25:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-12 14:42:53</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-12 14:42:53</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-16 14:39:31</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>18928</v>
+        <v>122665</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5217,14 +5218,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5234,7 +5235,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5246,41 +5247,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250670</v>
+        <v>251566</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>25.62295081967213</v>
+        <v>107.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-16 14:39:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-19 07:09:31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-19 07:09:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-19 08:57:10</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1563</v>
+        <v>6889</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5289,14 +5290,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5306,7 +5307,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5318,41 +5319,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>245090</v>
+        <v>251373</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>8470.786885245901</v>
+        <v>267.09375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-19 08:57:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:37</t>
+          <t>2025-05-19 09:14:10</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:37</t>
+          <t>2025-05-19 09:14:10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-03 13:30:24</t>
+          <t>2025-05-19 13:41:15</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>516718</v>
+        <v>17094</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5361,14 +5362,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5378,7 +5379,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5390,41 +5391,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>243335</v>
+        <v>235572</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>541.0491803278688</v>
+        <v>155.59375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-03 13:30:24</t>
+          <t>2025-05-19 13:41:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-03 14:12:24</t>
+          <t>2025-05-19 13:56:15</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-03 14:12:24</t>
+          <t>2025-05-19 13:56:15</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:27</t>
+          <t>2025-05-20 08:31:51</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>33004</v>
+        <v>9958</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5433,14 +5434,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5450,7 +5451,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5462,41 +5463,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251283</v>
+        <v>251561</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>12.36065573770492</v>
+        <v>84.921875</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:27</t>
+          <t>2025-05-20 08:31:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:57:27</t>
+          <t>2025-05-20 08:46:51</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:57:27</t>
+          <t>2025-05-20 08:46:51</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:49</t>
+          <t>2025-05-20 10:11:46</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>754</v>
+        <v>5435</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5505,11 +5506,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5522,7 +5523,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5534,41 +5535,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251246</v>
+        <v>251546</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>196.7540983606557</v>
+        <v>101.03125</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:49</t>
+          <t>2025-05-20 10:11:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-05 08:34:49</t>
+          <t>2025-05-20 10:26:46</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-05 08:34:49</t>
+          <t>2025-05-20 10:26:46</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-05 11:51:34</t>
+          <t>2025-05-20 12:07:48</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>12002</v>
+        <v>6466</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5577,11 +5578,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5594,7 +5595,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5606,41 +5607,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251742</v>
+        <v>251519</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>134.8524590163935</v>
+        <v>205.859375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-20 12:07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-20 12:28:48</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-20 12:28:48</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-21 07:54:40</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8226</v>
+        <v>13175</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5653,71 +5654,66 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251840</v>
+        <v>251397</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>93.67213114754098</v>
+        <v>84.921875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-21 07:54:40</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-21 08:11:40</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-21 08:11:40</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-21 09:36:35</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5714</v>
+        <v>5435</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5730,71 +5726,66 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251456</v>
+        <v>251594</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>147.5245901639344</v>
+        <v>101.03125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-21 09:36:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-21 09:53:35</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-21 09:53:35</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-21 11:34:37</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>8999</v>
+        <v>6466</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5807,71 +5798,66 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251416</v>
+        <v>245275</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>183.9672131147541</v>
+        <v>379.59375</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-21 11:34:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-21 12:09:37</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-21 12:09:37</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-22 10:29:13</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>11222</v>
+        <v>24294</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5880,18 +5866,15 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="n">
-        <v>39755</v>
-      </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
@@ -5900,7 +5883,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5912,41 +5895,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251580</v>
+        <v>245350</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>117.2622950819672</v>
+        <v>437.03125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-22 10:29:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:00</t>
+          <t>2025-05-22 10:52:13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:00</t>
+          <t>2025-05-22 10:52:13</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:16</t>
+          <t>2025-05-23 10:09:15</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7153</v>
+        <v>27970</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5955,11 +5938,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5972,7 +5955,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5984,41 +5967,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251743</v>
+        <v>250819</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>176.655737704918</v>
+        <v>133.234375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:16</t>
+          <t>2025-05-23 10:09:15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:16</t>
+          <t>2025-05-23 10:32:15</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:16</t>
+          <t>2025-05-23 10:32:15</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:56</t>
+          <t>2025-05-23 12:45:29</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>10776</v>
+        <v>8527</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6031,7 +6014,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6044,7 +6027,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6056,41 +6039,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251463</v>
+        <v>251245</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>114.2131147540984</v>
+        <v>11.78125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:56</t>
+          <t>2025-05-23 12:45:29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:13:56</t>
+          <t>2025-05-23 13:00:29</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:13:56</t>
+          <t>2025-05-23 13:00:29</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:08</t>
+          <t>2025-05-23 13:12:15</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6967</v>
+        <v>754</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6099,11 +6082,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6116,7 +6099,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6128,41 +6111,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251566</v>
+        <v>251247</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>112.9344262295082</v>
+        <v>420.84375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:08</t>
+          <t>2025-05-23 13:12:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:08</t>
+          <t>2025-05-23 13:27:15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:08</t>
+          <t>2025-05-23 13:27:15</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:04</t>
+          <t>2025-05-26 12:28:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6889</v>
+        <v>26934</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6171,11 +6154,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6188,7 +6171,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6200,41 +6183,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251424</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>158.3934426229508</v>
+        <v>353.5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:04</t>
+          <t>2025-05-26 12:28:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:04</t>
+          <t>2025-05-26 12:43:06</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:04</t>
+          <t>2025-05-26 12:43:06</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:28</t>
+          <t>2025-05-27 10:36:36</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9662</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6243,11 +6226,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6260,7 +6243,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6272,67 +6255,74 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>244355</v>
+        <v>251706</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>70.65573770491804</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:28</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:28</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:28</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:07</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4310</v>
+        <v>3200</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6344,41 +6334,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251252</v>
+        <v>251050</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D81" t="n">
-        <v>247.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:07</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 09:20:07</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 09:20:07</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:23</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15083</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6387,70 +6377,75 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
-      <c r="O81" t="n">
-        <v>0</v>
+      <c r="N81" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>244023</v>
+        <v>251054</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>16.34426229508197</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:23</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:23</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:23</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-13 14:03:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6459,142 +6454,154 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251061</v>
+        <v>251081</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C83" t="n">
+        <v>125</v>
+      </c>
+      <c r="D83" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
         <v>20</v>
-      </c>
-      <c r="D83" t="n">
-        <v>393.3934426229508</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:03:44</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:23:44</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:23:44</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:57:07</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>23997</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251260</v>
+        <v>251109</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D84" t="n">
-        <v>153.5901639344262</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 12:57:07</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:07</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:07</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-15 07:50:43</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>9369</v>
+        <v>18928</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6603,11 +6610,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6620,7 +6627,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6632,41 +6639,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251795</v>
+        <v>251284</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>20</v>
+        <v>40.5</v>
       </c>
       <c r="D85" t="n">
-        <v>307.1967213114754</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-15 07:50:43</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-15 08:10:43</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-15 08:10:43</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 13:17:55</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18739</v>
+        <v>16340</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6675,70 +6682,75 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
+      <c r="N85" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251466</v>
+        <v>251520</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>80.68115942028986</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5567</v>
+        <v>16340</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6747,11 +6759,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6764,7 +6776,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6776,41 +6788,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251465</v>
+        <v>251259</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D87" t="n">
-        <v>90.23188405797102</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-12 10:39:40</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:40</t>
+          <t>2025-05-12 10:39:40</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:54</t>
+          <t>2025-05-12 12:10:35</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>6226</v>
+        <v>5000</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6823,7 +6835,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6836,7 +6848,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6848,41 +6860,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251268</v>
+        <v>251463</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>47</v>
+        <v>40.5</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 12:10:35</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 12:51:05</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 12:51:05</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 14:57:45</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6891,77 +6903,70 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
         <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>76</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251164</v>
+        <v>245090</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D89" t="n">
-        <v>204.0816326530612</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>10000</v>
+        <v>516718</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6970,75 +6975,70 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
-      </c>
-      <c r="N89" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251251</v>
+        <v>251249</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>323.6734693877551</v>
+        <v>78</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-06-03 13:21:47</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-06-03 13:21:47</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:45</t>
+          <t>2025-06-03 14:39:47</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>15860</v>
+        <v>4758</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251251</v>
+        <v>251340</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>223.3802816901408</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -689,21 +689,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 13:26:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 13:26:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:34</t>
+          <t>2025-05-09 13:08:10</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15860</v>
+        <v>32800</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251346</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -749,33 +749,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>54.35211267605634</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:34</t>
+          <t>2025-05-09 13:08:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:43:34</t>
+          <t>2025-05-09 13:38:10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:43:34</t>
+          <t>2025-05-09 13:38:10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:55</t>
+          <t>2025-05-12 08:16:13</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3859</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -788,11 +788,14 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
+      <c r="N5" t="n">
+        <v>39755</v>
+      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
@@ -801,7 +804,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -813,7 +816,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251246</v>
+        <v>251809</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -824,30 +827,30 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>169.0422535211268</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:55</t>
+          <t>2025-05-12 08:16:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:56:55</t>
+          <t>2025-05-12 08:35:13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:56:55</t>
+          <t>2025-05-12 08:35:13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:58</t>
+          <t>2025-05-12 10:37:29</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12002</v>
+        <v>8681</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -856,11 +859,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -873,7 +876,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -885,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251283</v>
+        <v>251580</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,30 +899,30 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>10.61971830985915</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:58</t>
+          <t>2025-05-12 10:37:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:00:58</t>
+          <t>2025-05-12 10:52:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:00:58</t>
+          <t>2025-05-12 10:52:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:11:35</t>
+          <t>2025-05-12 12:33:14</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>754</v>
+        <v>7153</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -928,11 +931,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -945,7 +948,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -957,7 +960,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251505</v>
+        <v>244354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,33 +968,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>200.7746478873239</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:11:35</t>
+          <t>2025-05-12 12:33:14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:35</t>
+          <t>2025-05-12 12:48:14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:35</t>
+          <t>2025-05-12 12:48:14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:21</t>
+          <t>2025-05-12 13:48:56</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14255</v>
+        <v>4310</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1004,7 +1007,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1017,7 +1020,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1029,7 +1032,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251465</v>
+        <v>251485</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1037,33 +1040,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>87.69014084507042</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:21</t>
+          <t>2025-05-12 13:48:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:10:21</t>
+          <t>2025-05-12 14:05:56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:10:21</t>
+          <t>2025-05-12 14:05:56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:03</t>
+          <t>2025-05-13 07:13:39</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6226</v>
+        <v>4808</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1076,7 +1079,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1101,7 +1104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251416</v>
+        <v>251252</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1109,33 +1112,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>158.056338028169</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:03</t>
+          <t>2025-05-13 07:13:39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:03</t>
+          <t>2025-05-13 07:30:39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:03</t>
+          <t>2025-05-13 07:30:39</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:06</t>
+          <t>2025-05-13 11:03:05</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>11222</v>
+        <v>15083</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1144,18 +1147,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39755</v>
-      </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251564</v>
+        <v>251246</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,33 +1184,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>38.26760563380282</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:06</t>
+          <t>2025-05-13 11:03:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:06</t>
+          <t>2025-05-13 11:18:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:06</t>
+          <t>2025-05-13 11:18:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:22</t>
+          <t>2025-05-13 14:07:08</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2717</v>
+        <v>12002</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251626</v>
+        <v>251249</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1259,30 +1259,30 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>176.056338028169</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:22</t>
+          <t>2025-05-13 14:07:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:22</t>
+          <t>2025-05-13 14:22:08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:22</t>
+          <t>2025-05-13 14:22:08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:26</t>
+          <t>2025-05-14 07:29:09</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12500</v>
+        <v>4758</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251761</v>
+        <v>235572</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1331,30 +1331,30 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>187.0281690140845</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:26</t>
+          <t>2025-05-14 07:29:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:26</t>
+          <t>2025-05-14 07:46:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:26</t>
+          <t>2025-05-14 07:46:09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:27</t>
+          <t>2025-05-14 10:06:24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13279</v>
+        <v>9958</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1363,11 +1363,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1392,7 +1392,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251464</v>
+        <v>251564</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1400,33 +1400,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:27</t>
+          <t>2025-05-14 10:06:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:27</t>
+          <t>2025-05-14 10:25:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:27</t>
+          <t>2025-05-14 10:25:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:57:12</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>2717</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251467</v>
+        <v>251626</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1472,33 +1472,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>87.69014084507042</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 07:57:12</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 08:16:12</t>
+          <t>2025-05-14 11:18:40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 08:16:12</t>
+          <t>2025-05-14 11:18:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:54</t>
+          <t>2025-05-14 14:14:43</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251557</v>
+        <v>251761</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1544,33 +1544,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>94.43661971830986</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:54</t>
+          <t>2025-05-14 14:14:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:58:54</t>
+          <t>2025-05-14 14:31:43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:58:54</t>
+          <t>2025-05-14 14:31:43</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:20</t>
+          <t>2025-05-15 09:38:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6705</v>
+        <v>13279</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1608,7 +1608,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251485</v>
+        <v>251464</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1616,33 +1616,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>67.71830985915493</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:20</t>
+          <t>2025-05-15 09:38:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:20</t>
+          <t>2025-05-15 09:53:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:20</t>
+          <t>2025-05-15 09:53:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:03</t>
+          <t>2025-05-15 11:34:30</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4808</v>
+        <v>7153</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251252</v>
+        <v>251467</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1688,33 +1688,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>212.4366197183099</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:03</t>
+          <t>2025-05-15 11:34:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-14 13:19:03</t>
+          <t>2025-05-15 11:53:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-14 13:19:03</t>
+          <t>2025-05-15 11:53:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-15 08:51:29</t>
+          <t>2025-05-15 13:21:11</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251987</v>
+        <v>251557</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1760,33 +1760,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>2965.154929577465</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-15 08:51:29</t>
+          <t>2025-05-15 13:21:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-15 09:21:29</t>
+          <t>2025-05-15 13:36:11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-15 09:21:29</t>
+          <t>2025-05-15 13:36:11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-23 10:46:38</t>
+          <t>2025-05-16 07:10:38</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>210526</v>
+        <v>6705</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1795,14 +1795,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>244204</v>
+        <v>251465</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>56.91803278688525</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2085,11 +2085,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:58</t>
+          <t>2025-05-09 08:48:06</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3472</v>
+        <v>6226</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2127,7 +2127,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251743</v>
+        <v>251562</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2138,30 +2138,30 @@
         <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>176.655737704918</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:58</t>
+          <t>2025-05-09 08:48:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:58</t>
+          <t>2025-05-09 09:08:06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:58</t>
+          <t>2025-05-09 09:08:06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:37</t>
+          <t>2025-05-09 11:21:35</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10776</v>
+        <v>8142</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2199,7 +2199,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251580</v>
+        <v>251475</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2207,33 +2207,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>117.2622950819672</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:37</t>
+          <t>2025-05-09 11:21:35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:39:37</t>
+          <t>2025-05-09 11:51:35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:39:37</t>
+          <t>2025-05-09 11:51:35</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:53</t>
+          <t>2025-05-09 14:13:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7153</v>
+        <v>8681</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2271,7 +2271,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244354</v>
+        <v>251424</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2282,30 +2282,30 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>70.65573770491804</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:53</t>
+          <t>2025-05-09 14:13:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:53</t>
+          <t>2025-05-09 14:33:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:53</t>
+          <t>2025-05-09 14:33:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:07:32</t>
+          <t>2025-05-12 09:12:17</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4310</v>
+        <v>9662</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2343,7 +2343,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251475</v>
+        <v>244355</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2354,30 +2354,30 @@
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>142.3114754098361</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:07:32</t>
+          <t>2025-05-12 09:12:17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:27:32</t>
+          <t>2025-05-12 09:32:17</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:27:32</t>
+          <t>2025-05-12 09:32:17</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:51</t>
+          <t>2025-05-12 10:42:57</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8681</v>
+        <v>4310</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2415,7 +2415,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251424</v>
+        <v>251505</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2423,33 +2423,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>158.3934426229508</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:51</t>
+          <t>2025-05-12 10:42:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:51</t>
+          <t>2025-05-12 11:07:57</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:51</t>
+          <t>2025-05-12 11:07:57</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:14</t>
+          <t>2025-05-13 07:01:38</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9662</v>
+        <v>14255</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>244355</v>
+        <v>250641</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2495,33 +2495,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>70.65573770491804</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:14</t>
+          <t>2025-05-13 07:01:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:14</t>
+          <t>2025-05-13 07:26:38</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:14</t>
+          <t>2025-05-13 07:26:38</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:54</t>
+          <t>2025-05-13 08:50:30</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4310</v>
+        <v>5116</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2567,29 +2567,29 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
         <v>307.1967213114754</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:54</t>
+          <t>2025-05-13 08:50:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:54</t>
+          <t>2025-05-13 09:10:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:54</t>
+          <t>2025-05-13 09:10:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:05</t>
+          <t>2025-05-13 14:17:42</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2653,22 +2653,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:05</t>
+          <t>2025-05-13 14:17:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:05</t>
+          <t>2025-05-13 14:37:42</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:05</t>
+          <t>2025-05-13 14:37:42</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:32:26</t>
+          <t>2025-05-13 14:54:02</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2725,22 +2725,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 12:32:26</t>
+          <t>2025-05-13 14:54:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:26</t>
+          <t>2025-05-14 07:14:02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:26</t>
+          <t>2025-05-14 07:14:02</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:50</t>
+          <t>2025-05-14 13:47:26</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2797,22 +2797,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:50</t>
+          <t>2025-05-14 13:47:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:45:50</t>
+          <t>2025-05-14 14:07:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:45:50</t>
+          <t>2025-05-14 14:07:26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 14:19:25</t>
+          <t>2025-05-15 08:41:01</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 14:19:25</t>
+          <t>2025-05-15 08:41:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 14:39:25</t>
+          <t>2025-05-15 09:01:01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 14:39:25</t>
+          <t>2025-05-15 09:01:01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-15 11:46:37</t>
+          <t>2025-05-15 14:08:13</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2926,41 +2926,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>243335</v>
+        <v>251477</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>478.3188405797101</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:19</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>33004</v>
+        <v>29999</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2969,70 +2969,75 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>152</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N35" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251809</v>
+        <v>243569</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>125.8115942028985</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:19</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:19</t>
+          <t>2025-05-09 11:34:31</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:19</t>
+          <t>2025-05-09 11:34:31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:07</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8681</v>
+        <v>2601</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3041,14 +3046,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3058,7 +3063,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3070,41 +3075,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251846</v>
+        <v>250894</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>165.1014492753623</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:07</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:07</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:07</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:13</t>
+          <t>2025-05-12 14:53:33</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11392</v>
+        <v>44262</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3113,14 +3118,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39755</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3130,7 +3138,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3142,41 +3150,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251466</v>
+        <v>251987</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>80.68115942028986</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:13</t>
+          <t>2025-05-12 14:53:33</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:13</t>
+          <t>2025-05-13 07:10:33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:13</t>
+          <t>2025-05-13 07:10:33</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:54</t>
+          <t>2025-05-21 08:35:43</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5567</v>
+        <v>210526</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3185,14 +3193,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3202,7 +3210,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3214,41 +3222,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250641</v>
+        <v>243335</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>74.14492753623189</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:54</t>
+          <t>2025-05-21 08:35:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:54</t>
+          <t>2025-05-21 09:09:43</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:54</t>
+          <t>2025-05-21 09:09:43</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:03</t>
+          <t>2025-05-22 08:54:33</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5116</v>
+        <v>33004</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3257,14 +3265,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3274,7 +3282,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3286,41 +3294,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251374</v>
+        <v>251750</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>396.2753623188406</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:03</t>
+          <t>2025-05-22 08:54:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-14 09:39:03</t>
+          <t>2025-05-22 09:11:33</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-14 09:39:03</t>
+          <t>2025-05-22 09:11:33</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-15 08:15:20</t>
+          <t>2025-05-22 10:06:21</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>27343</v>
+        <v>3891</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3329,14 +3337,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3346,7 +3354,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3358,7 +3366,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251477</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3369,30 +3377,30 @@
         <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>422.5211267605634</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-22 10:06:21</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-22 10:23:21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-22 10:23:21</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-23 08:35:27</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>29999</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3401,75 +3409,70 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>250670</v>
+        <v>251268</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>22.01408450704225</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:32</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3478,7 +3481,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3487,61 +3490,68 @@
       <c r="M42" t="n">
         <v>76</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>623.4084507042254</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:32</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:15:32</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:15:32</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:56</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3550,73 +3560,75 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>243569</v>
+        <v>244204</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>36.63380281690141</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:56</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:56</t>
+          <t>2025-05-08 12:43:04</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:56</t>
+          <t>2025-05-08 12:43:04</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:34</t>
+          <t>2025-05-08 13:53:56</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2601</v>
+        <v>3472</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3625,14 +3637,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3642,7 +3654,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3654,41 +3666,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251340</v>
+        <v>250670</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>461.9718309859155</v>
+        <v>25.62295081967213</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:34</t>
+          <t>2025-05-09 07:27:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:34</t>
+          <t>2025-05-09 07:27:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:32</t>
+          <t>2025-05-09 07:52:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>32800</v>
+        <v>1563</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3701,7 +3713,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>76</v>
@@ -3714,7 +3726,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3726,41 +3738,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>245623</v>
+        <v>245090</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>372.0985915492957</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:32</t>
+          <t>2025-05-09 07:52:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:32</t>
+          <t>2025-05-09 08:19:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:32</t>
+          <t>2025-05-09 08:19:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 14:15:38</t>
+          <t>2025-06-03 13:30:24</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>26419</v>
+        <v>516718</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3773,10 +3785,10 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3786,7 +3798,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3798,41 +3810,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251750</v>
+        <v>251455</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>54.80281690140845</v>
+        <v>82.765625</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-14 14:15:38</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-14 14:32:38</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-14 14:32:38</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-15 07:27:27</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3891</v>
+        <v>5297</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3841,70 +3853,75 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251268</v>
+        <v>251391</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3913,19 +3930,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39749</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3933,57 +3948,57 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251164</v>
+        <v>251395</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>204.0816326530612</v>
+        <v>35.34375</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>10000</v>
+        <v>2262</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4014,53 +4029,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251562</v>
+        <v>251371</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>166.1632653061224</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:14</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4073,66 +4088,73 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251462</v>
+        <v>251453</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>127.0612244897959</v>
+        <v>78.125</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:14</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:14</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:14</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:18</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6226</v>
+        <v>5000</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4145,32 +4167,39 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251455</v>
+        <v>251396</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4178,33 +4207,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4217,7 +4246,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4235,19 +4264,19 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251391</v>
+        <v>251548</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4255,33 +4284,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>91.640625</v>
+        <v>206.90625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5865</v>
+        <v>13242</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4294,7 +4323,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4312,19 +4341,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4332,33 +4361,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4367,14 +4396,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N54" t="n">
         <v>39749</v>
@@ -4389,19 +4418,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251371</v>
+        <v>251225</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4409,29 +4438,29 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4444,19 +4473,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39747</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4464,23 +4491,23 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251453</v>
+        <v>251227</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4488,33 +4515,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>78.125</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4523,19 +4550,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39746</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4543,23 +4568,23 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>39742</v>
+        <v>39746</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251396</v>
+        <v>251421</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4567,33 +4592,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>35.34375</v>
+        <v>81.9375</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2262</v>
+        <v>5244</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4602,17 +4627,19 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39749</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4620,23 +4647,23 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>39749</v>
+        <v>39762</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251548</v>
+        <v>251782</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4644,33 +4671,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>206.90625</v>
+        <v>188.640625</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13242</v>
+        <v>12073</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4679,17 +4706,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N58" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4697,23 +4724,23 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250923</v>
+        <v>251651</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4721,33 +4748,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>109.46875</v>
+        <v>731.71875</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-12 14:25:53</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7006</v>
+        <v>46830</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4756,7 +4783,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4766,31 +4793,29 @@
         <v>76</v>
       </c>
       <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251225</v>
+        <v>245089</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4801,30 +4826,30 @@
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1916.640625</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-12 14:25:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 14:42:53</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 14:42:53</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-16 14:39:31</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>122665</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4842,32 +4867,27 @@
       <c r="M60" t="n">
         <v>76</v>
       </c>
-      <c r="N60" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251227</v>
+        <v>251743</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4875,33 +4895,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>168.375</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-16 14:39:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-19 07:09:31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-19 07:09:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-19 09:57:54</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>10776</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4910,41 +4930,36 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
-      </c>
-      <c r="N61" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251421</v>
+        <v>251566</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4952,33 +4967,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>81.9375</v>
+        <v>107.640625</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-19 09:57:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-19 10:12:54</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-19 10:12:54</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-19 12:00:32</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5244</v>
+        <v>6889</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4987,43 +5002,36 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251782</v>
+        <v>251561</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5031,33 +5039,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>188.640625</v>
+        <v>84.921875</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-19 12:00:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-19 12:17:32</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-19 12:17:32</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-19 13:42:28</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>12073</v>
+        <v>5435</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5066,41 +5074,36 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
-      </c>
-      <c r="N63" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251651</v>
+        <v>251546</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5108,33 +5111,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>731.71875</v>
+        <v>101.03125</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-19 13:42:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-19 13:57:28</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-19 13:57:28</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-20 07:38:30</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>46830</v>
+        <v>6466</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5143,17 +5146,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
         <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
-      </c>
-      <c r="N64" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5175,7 +5175,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>245089</v>
+        <v>251846</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5183,33 +5183,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
-        <v>1916.640625</v>
+        <v>178</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-20 07:38:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-20 07:59:30</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-20 07:59:30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-20 10:57:30</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>122665</v>
+        <v>11392</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5218,14 +5218,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5247,7 +5247,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251566</v>
+        <v>251519</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5255,33 +5255,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>107.640625</v>
+        <v>205.859375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-20 10:57:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-20 11:12:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-20 11:12:30</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-19 08:57:10</t>
+          <t>2025-05-20 14:38:21</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6889</v>
+        <v>13175</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251373</v>
+        <v>251397</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5330,30 +5330,30 @@
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>267.09375</v>
+        <v>84.921875</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-19 08:57:10</t>
+          <t>2025-05-20 14:38:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-19 09:14:10</t>
+          <t>2025-05-20 14:55:21</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-19 09:14:10</t>
+          <t>2025-05-20 14:55:21</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-19 13:41:15</t>
+          <t>2025-05-21 08:20:16</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>17094</v>
+        <v>5435</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>235572</v>
+        <v>251594</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5399,33 +5399,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
-        <v>155.59375</v>
+        <v>101.03125</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-19 13:41:15</t>
+          <t>2025-05-21 08:20:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-19 13:56:15</t>
+          <t>2025-05-21 08:37:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-19 13:56:15</t>
+          <t>2025-05-21 08:37:16</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-20 08:31:51</t>
+          <t>2025-05-21 10:18:18</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>9958</v>
+        <v>6466</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5434,11 +5434,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5463,7 +5463,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251561</v>
+        <v>245275</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5471,33 +5471,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>84.921875</v>
+        <v>379.59375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-20 08:31:51</t>
+          <t>2025-05-21 10:18:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-20 08:46:51</t>
+          <t>2025-05-21 10:53:18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-20 08:46:51</t>
+          <t>2025-05-21 10:53:18</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-20 10:11:46</t>
+          <t>2025-05-22 09:12:54</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5535,7 +5535,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251546</v>
+        <v>245350</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5543,33 +5543,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
-        <v>101.03125</v>
+        <v>437.03125</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-20 10:11:46</t>
+          <t>2025-05-22 09:12:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-20 10:26:46</t>
+          <t>2025-05-22 09:35:54</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-20 10:26:46</t>
+          <t>2025-05-22 09:35:54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-20 12:07:48</t>
+          <t>2025-05-23 08:52:56</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6466</v>
+        <v>27970</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5578,11 +5578,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5607,7 +5607,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251519</v>
+        <v>250819</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5615,33 +5615,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>205.859375</v>
+        <v>133.234375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-20 12:07:48</t>
+          <t>2025-05-23 08:52:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-20 12:28:48</t>
+          <t>2025-05-23 09:15:56</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-20 12:28:48</t>
+          <t>2025-05-23 09:15:56</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-21 07:54:40</t>
+          <t>2025-05-23 11:29:10</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>13175</v>
+        <v>8527</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5679,7 +5679,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251397</v>
+        <v>251245</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5687,33 +5687,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>84.921875</v>
+        <v>11.78125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-21 07:54:40</t>
+          <t>2025-05-23 11:29:10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-21 08:11:40</t>
+          <t>2025-05-23 11:44:10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-21 08:11:40</t>
+          <t>2025-05-23 11:44:10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-21 09:36:35</t>
+          <t>2025-05-23 11:55:57</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5435</v>
+        <v>754</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5722,11 +5722,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5751,7 +5751,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251594</v>
+        <v>251247</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5759,33 +5759,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>101.03125</v>
+        <v>420.84375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-21 09:36:35</t>
+          <t>2025-05-23 11:55:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-21 09:53:35</t>
+          <t>2025-05-23 12:10:57</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-21 09:53:35</t>
+          <t>2025-05-23 12:10:57</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-21 11:34:37</t>
+          <t>2025-05-26 11:11:47</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6466</v>
+        <v>26934</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5794,11 +5794,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5823,7 +5823,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245275</v>
+        <v>251062</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5831,33 +5831,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>379.59375</v>
+        <v>353.5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-21 11:34:37</t>
+          <t>2025-05-26 11:11:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-21 12:09:37</t>
+          <t>2025-05-26 11:26:47</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-21 12:09:37</t>
+          <t>2025-05-26 11:26:47</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-22 10:29:13</t>
+          <t>2025-05-27 09:20:17</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>24294</v>
+        <v>22624</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5866,11 +5866,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5895,41 +5895,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>245350</v>
+        <v>251466</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>437.03125</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-22 10:29:13</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-22 10:52:13</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-22 10:52:13</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-23 10:09:15</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>27970</v>
+        <v>5567</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5938,11 +5938,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5967,41 +5967,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>250819</v>
+        <v>251373</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>133.234375</v>
+        <v>247.7391304347826</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-23 10:09:15</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-23 10:32:15</t>
+          <t>2025-05-12 09:25:40</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-23 10:32:15</t>
+          <t>2025-05-12 09:25:40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-23 12:45:29</t>
+          <t>2025-05-12 13:33:25</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>8527</v>
+        <v>17094</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6039,41 +6039,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251245</v>
+        <v>251251</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
-        <v>11.78125</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-23 12:45:29</t>
+          <t>2025-05-12 13:33:25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-23 13:00:29</t>
+          <t>2025-05-12 14:03:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-23 13:00:29</t>
+          <t>2025-05-12 14:03:25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-23 13:12:15</t>
+          <t>2025-05-13 09:53:16</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>754</v>
+        <v>15860</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6111,41 +6111,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251247</v>
+        <v>251283</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>420.84375</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-23 13:12:15</t>
+          <t>2025-05-13 09:53:16</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-23 13:27:15</t>
+          <t>2025-05-13 10:18:16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-23 13:27:15</t>
+          <t>2025-05-13 10:18:16</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-26 12:28:06</t>
+          <t>2025-05-13 10:29:12</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>26934</v>
+        <v>754</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6183,41 +6183,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>251374</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>353.5</v>
+        <v>396.2753623188406</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-26 12:28:06</t>
+          <t>2025-05-13 10:29:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-26 12:43:06</t>
+          <t>2025-05-13 10:59:12</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-26 12:43:06</t>
+          <t>2025-05-13 10:59:12</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-27 10:36:36</t>
+          <t>2025-05-14 09:35:28</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>27343</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6255,74 +6255,67 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251706</v>
+        <v>251346</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>50.79365079365079</v>
+        <v>55.92753623188405</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:35:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:05:28</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:05:28</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 11:01:24</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3200</v>
+        <v>3859</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6334,60 +6327,62 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251050</v>
+        <v>251706</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39747</v>
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6395,23 +6390,23 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251054</v>
+        <v>251050</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6419,29 +6414,29 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>2025-05-09 10:37:00</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6480,15 +6475,15 @@
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6496,33 +6491,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>2025-05-09 11:12:00</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6535,15 +6530,13 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N83" t="n">
+        <v>39747</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6551,23 +6544,23 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251109</v>
+        <v>251081</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6575,33 +6568,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D84" t="n">
-        <v>266.5915492957747</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>2025-05-09 13:59:25</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:54:25</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:54:25</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:21:00</t>
-        </is>
-      </c>
       <c r="I84" t="n">
-        <v>18928</v>
+        <v>3012</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6614,66 +6607,73 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251284</v>
+        <v>251109</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>40.5</v>
+        <v>55</v>
       </c>
       <c r="D85" t="n">
-        <v>297.0909090909091</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>16340</v>
+        <v>18928</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6682,41 +6682,36 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
       </c>
-      <c r="N85" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251520</v>
+        <v>251284</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6724,29 +6719,29 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>40.5</v>
       </c>
       <c r="D86" t="n">
         <v>297.0909090909091</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:40:30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:40:30</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>2025-05-09 12:37:35</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:08:05</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:08:05</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6768,11 +6763,16 @@
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
+      <c r="N86" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -6780,15 +6780,15 @@
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251259</v>
+        <v>251463</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6796,33 +6796,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D87" t="n">
-        <v>90.90909090909091</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:40</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:40</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:35</t>
+          <t>2025-05-12 07:20:45</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5000</v>
+        <v>6967</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6860,7 +6860,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6868,33 +6868,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D88" t="n">
-        <v>126.6727272727273</v>
+        <v>113.2</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:35</t>
+          <t>2025-05-12 07:20:45</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:05</t>
+          <t>2025-05-12 07:55:15</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:05</t>
+          <t>2025-05-12 07:55:15</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:45</t>
+          <t>2025-05-12 09:48:27</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
         <v>70</v>
@@ -6932,41 +6932,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>245090</v>
+        <v>251520</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D89" t="n">
-        <v>8470.786885245901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:48:27</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 10:28:57</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 10:28:57</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-13 07:26:03</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>516718</v>
+        <v>16340</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6975,14 +6975,14 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M89" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
@@ -7004,41 +7004,41 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251249</v>
+        <v>251259</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="D90" t="n">
-        <v>78</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-13 07:26:03</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-06-03 13:21:47</t>
+          <t>2025-05-13 08:00:33</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-06-03 13:21:47</t>
+          <t>2025-05-13 08:00:33</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-06-03 14:39:47</t>
+          <t>2025-05-13 09:31:27</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4758</v>
+        <v>5000</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7047,11 +7047,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M90" t="n">
         <v>70</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/sequenza_post.xlsx
@@ -515,60 +515,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>82.765625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251340</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>461.9718309859155</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:10</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>32800</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,70 +714,75 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:10</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:38:10</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:38:10</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:13</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -788,19 +795,21 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -808,49 +817,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251809</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>122.2676056338028</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:13</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,61 +877,68 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251580</v>
+        <v>251453</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>100.7464788732394</v>
+        <v>78.125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:29</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:29</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:14</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>7153</v>
+        <v>5000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -935,66 +951,73 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>244354</v>
+        <v>251396</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>60.70422535211268</v>
+        <v>35.34375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:14</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:14</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:14</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:48:56</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4310</v>
+        <v>2262</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1007,66 +1030,71 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251485</v>
+        <v>251548</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>67.71830985915493</v>
+        <v>206.90625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 13:48:56</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:56</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:56</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:39</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4808</v>
+        <v>13242</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1079,66 +1107,71 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251252</v>
+        <v>250923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>212.4366197183099</v>
+        <v>109.46875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:39</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:39</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:39</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:05</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15083</v>
+        <v>7006</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1147,70 +1180,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251246</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>169.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:05</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:05</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:05</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:08</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12002</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1219,70 +1257,75 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251249</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>67.01408450704226</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:08</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:08</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:08</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:09</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4758</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1291,70 +1334,75 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>235572</v>
+        <v>251421</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>140.2535211267606</v>
+        <v>81.9375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:09</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:09</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:09</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:24</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9958</v>
+        <v>5244</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1363,70 +1411,77 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251564</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>38.26760563380282</v>
+        <v>188.640625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:24</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 10:25:24</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 10:25:24</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2717</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1435,70 +1490,75 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251626</v>
+        <v>251340</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>176.056338028169</v>
+        <v>512.5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:40</t>
+          <t>2025-05-09 10:12:10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:40</t>
+          <t>2025-05-09 10:12:10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 14:14:43</t>
+          <t>2025-05-12 10:44:40</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12500</v>
+        <v>32800</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1507,14 +1567,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1524,7 +1584,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1536,41 +1596,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251761</v>
+        <v>251846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>187.0281690140845</v>
+        <v>178</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:14:43</t>
+          <t>2025-05-12 10:44:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:31:43</t>
+          <t>2025-05-12 11:14:40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:31:43</t>
+          <t>2025-05-12 11:14:40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-15 09:38:45</t>
+          <t>2025-05-12 14:12:40</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13279</v>
+        <v>11392</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1583,7 +1643,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1596,7 +1656,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1608,41 +1668,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251464</v>
+        <v>251397</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>100.7464788732394</v>
+        <v>84.921875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-15 09:38:45</t>
+          <t>2025-05-12 14:12:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 09:53:45</t>
+          <t>2025-05-12 14:29:40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 09:53:45</t>
+          <t>2025-05-12 14:29:40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-15 11:34:30</t>
+          <t>2025-05-13 07:54:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7153</v>
+        <v>5435</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,7 +1715,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1668,7 +1728,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1680,41 +1740,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251467</v>
+        <v>251594</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>87.69014084507042</v>
+        <v>101.03125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-15 11:34:30</t>
+          <t>2025-05-13 07:54:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:30</t>
+          <t>2025-05-13 08:11:35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:30</t>
+          <t>2025-05-13 08:11:35</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-15 13:21:11</t>
+          <t>2025-05-13 09:52:37</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6226</v>
+        <v>6466</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1727,7 +1787,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1740,7 +1800,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1752,41 +1812,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251557</v>
+        <v>244354</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>94.43661971830986</v>
+        <v>67.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-15 13:21:11</t>
+          <t>2025-05-13 09:52:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-15 13:36:11</t>
+          <t>2025-05-13 10:07:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-15 13:36:11</t>
+          <t>2025-05-13 10:07:37</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-16 07:10:38</t>
+          <t>2025-05-13 11:14:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6705</v>
+        <v>4310</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1799,7 +1859,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1812,7 +1872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1824,41 +1884,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251742</v>
+        <v>251809</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>134.8524590163935</v>
+        <v>135.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 11:14:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 11:29:58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 11:29:58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 13:45:36</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8226</v>
+        <v>8681</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1876,66 +1936,61 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251840</v>
+        <v>251463</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>93.67213114754098</v>
+        <v>108.859375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 13:45:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 14:00:36</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 14:00:36</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 07:49:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5714</v>
+        <v>6967</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1948,21 +2003,16 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1970,49 +2020,49 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251546</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>147.5245901639344</v>
+        <v>101.03125</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 07:49:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-14 08:06:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-14 08:06:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-14 09:47:30</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>6466</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,71 +2075,66 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251465</v>
+        <v>251229</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>102.0655737704918</v>
+        <v>292.796875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-14 09:47:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-14 10:04:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-14 10:04:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-14 14:57:17</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6226</v>
+        <v>18739</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2098,24 +2143,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2127,41 +2179,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251562</v>
+        <v>251561</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>133.4754098360656</v>
+        <v>84.921875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-14 14:57:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:06</t>
+          <t>2025-05-15 07:14:17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:06</t>
+          <t>2025-05-15 07:14:17</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:35</t>
+          <t>2025-05-15 08:39:13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8142</v>
+        <v>5435</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2174,7 +2226,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2187,7 +2239,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2199,41 +2251,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251475</v>
+        <v>251505</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>142.3114754098361</v>
+        <v>222.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:35</t>
+          <t>2025-05-15 08:39:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:35</t>
+          <t>2025-05-15 08:54:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:35</t>
+          <t>2025-05-15 08:54:13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:54</t>
+          <t>2025-05-15 12:36:57</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8681</v>
+        <v>14255</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2246,7 +2298,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2259,7 +2311,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2271,41 +2323,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251424</v>
+        <v>250819</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>158.3934426229508</v>
+        <v>133.234375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:54</t>
+          <t>2025-05-15 12:36:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:54</t>
+          <t>2025-05-15 12:53:57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:54</t>
+          <t>2025-05-15 12:53:57</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 09:12:17</t>
+          <t>2025-05-16 07:07:11</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9662</v>
+        <v>8527</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2318,7 +2370,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2331,7 +2383,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2343,41 +2395,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>244355</v>
+        <v>251245</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>70.65573770491804</v>
+        <v>11.78125</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 09:12:17</t>
+          <t>2025-05-16 07:07:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:17</t>
+          <t>2025-05-16 07:22:11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:17</t>
+          <t>2025-05-16 07:22:11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:57</t>
+          <t>2025-05-16 07:33:58</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4310</v>
+        <v>754</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2386,11 +2438,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2403,7 +2455,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2415,41 +2467,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251505</v>
+        <v>251247</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>233.6885245901639</v>
+        <v>420.84375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:57</t>
+          <t>2025-05-16 07:33:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:07:57</t>
+          <t>2025-05-16 07:48:58</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:07:57</t>
+          <t>2025-05-16 07:48:58</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:38</t>
+          <t>2025-05-16 14:49:48</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>14255</v>
+        <v>26934</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2458,11 +2510,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2475,7 +2527,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2487,41 +2539,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250641</v>
+        <v>251062</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>83.8688524590164</v>
+        <v>353.5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:38</t>
+          <t>2025-05-16 14:49:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:38</t>
+          <t>2025-05-19 07:04:48</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:38</t>
+          <t>2025-05-19 07:04:48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:30</t>
+          <t>2025-05-19 12:58:18</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5116</v>
+        <v>22624</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2530,7 +2582,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2547,7 +2599,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2559,41 +2611,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251229</v>
+        <v>245275</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>307.1967213114754</v>
+        <v>379.59375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:30</t>
+          <t>2025-05-19 12:58:18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:30</t>
+          <t>2025-05-19 13:29:18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:30</t>
+          <t>2025-05-19 13:29:18</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:42</t>
+          <t>2025-05-20 11:48:54</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>18739</v>
+        <v>24294</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2602,31 +2654,24 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
@@ -2638,41 +2683,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>244023</v>
+        <v>251050</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D31" t="n">
-        <v>16.34426229508197</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:42</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:42</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:42</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2681,70 +2726,75 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251061</v>
+        <v>251054</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>393.3934426229508</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 13:47:26</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>23997</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2753,142 +2803,154 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251260</v>
+        <v>251081</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
         <v>20</v>
-      </c>
-      <c r="D33" t="n">
-        <v>153.5901639344262</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:47:26</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-05-14 14:07:26</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2025-05-14 14:07:26</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-05-15 08:41:01</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>9369</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251795</v>
+        <v>251109</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>307.1967213114754</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-15 08:41:01</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:01</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:01</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-15 14:08:13</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>18739</v>
+        <v>18928</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2897,11 +2959,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2914,7 +2976,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2926,41 +2988,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D35" t="n">
-        <v>422.5211267605634</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2969,17 +3031,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2987,57 +3049,57 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243569</v>
+        <v>251374</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D36" t="n">
-        <v>36.63380281690141</v>
+        <v>497.1454545454545</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:31</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:31</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2601</v>
+        <v>27343</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3046,14 +3108,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3063,7 +3125,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3075,41 +3137,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250894</v>
+        <v>235572</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D37" t="n">
-        <v>623.4084507042254</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-12 13:25:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:09</t>
+          <t>2025-05-12 13:59:44</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:09</t>
+          <t>2025-05-12 13:59:44</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:33</t>
+          <t>2025-05-13 09:00:47</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>44262</v>
+        <v>9958</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3118,17 +3180,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3138,7 +3197,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3150,41 +3209,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251987</v>
+        <v>244204</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D38" t="n">
-        <v>2965.154929577465</v>
+        <v>63.12727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:33</t>
+          <t>2025-05-13 09:00:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:33</t>
+          <t>2025-05-13 09:33:17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:33</t>
+          <t>2025-05-13 09:33:17</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-21 08:35:43</t>
+          <t>2025-05-13 10:36:25</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>210526</v>
+        <v>3472</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3193,14 +3252,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3210,7 +3269,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3222,41 +3281,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243335</v>
+        <v>251462</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>464.8450704225352</v>
+        <v>113.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-21 08:35:43</t>
+          <t>2025-05-13 10:36:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-21 09:09:43</t>
+          <t>2025-05-13 11:10:55</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-21 09:09:43</t>
+          <t>2025-05-13 11:10:55</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-22 08:54:33</t>
+          <t>2025-05-13 13:04:07</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>33004</v>
+        <v>6226</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3265,14 +3324,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3282,7 +3341,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3294,41 +3353,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251750</v>
+        <v>251520</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D40" t="n">
-        <v>54.80281690140845</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-22 08:54:33</t>
+          <t>2025-05-13 13:04:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-22 09:11:33</t>
+          <t>2025-05-13 13:44:37</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-22 09:11:33</t>
+          <t>2025-05-13 13:44:37</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-22 10:06:21</t>
+          <t>2025-05-14 10:41:42</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3891</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3337,14 +3396,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3354,7 +3413,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3366,41 +3425,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>251346</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-22 10:06:21</t>
+          <t>2025-05-14 10:41:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-22 10:23:21</t>
+          <t>2025-05-14 11:14:12</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-22 10:23:21</t>
+          <t>2025-05-14 11:14:12</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-23 08:35:27</t>
+          <t>2025-05-14 12:24:22</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>3859</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3409,14 +3468,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3426,7 +3485,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3438,18 +3497,18 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251268</v>
+        <v>251742</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3458,21 +3517,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3481,19 +3540,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39749</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3501,57 +3558,57 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251164</v>
+        <v>251840</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>204.0816326530612</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>10000</v>
+        <v>5714</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3564,13 +3621,13 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3578,57 +3635,57 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244204</v>
+        <v>251456</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>70.85714285714286</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:04</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:04</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:56</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3472</v>
+        <v>8999</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3641,66 +3698,71 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250670</v>
+        <v>251416</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>25.62295081967213</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1563</v>
+        <v>11222</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3709,14 +3771,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39755</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3726,7 +3791,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3738,41 +3803,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>245090</v>
+        <v>251475</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>8470.786885245901</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:37</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:37</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-03 13:30:24</t>
+          <t>2025-05-09 13:02:19</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>516718</v>
+        <v>8681</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3781,14 +3846,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3798,7 +3863,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3810,41 +3875,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251455</v>
+        <v>251566</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>82.765625</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 13:02:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 13:22:19</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 13:22:19</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:15:15</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5297</v>
+        <v>6889</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3862,66 +3927,61 @@
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251391</v>
+        <v>251424</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>91.640625</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:15:15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:35:15</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:35:15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 10:13:39</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5865</v>
+        <v>9662</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3934,71 +3994,66 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251395</v>
+        <v>244355</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>35.34375</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 10:13:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 10:33:39</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 10:33:39</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 11:44:18</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2262</v>
+        <v>4310</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4011,71 +4066,66 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="N49" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251371</v>
+        <v>250641</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 11:44:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 12:14:18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 12:14:18</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 13:38:10</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4088,73 +4138,66 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251453</v>
+        <v>251249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>78.125</v>
+        <v>78</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 13:38:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-12 13:58:10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-12 13:58:10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-13 07:16:10</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5000</v>
+        <v>4758</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4163,77 +4206,70 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251396</v>
+        <v>251252</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>35.34375</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-13 07:16:10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-13 07:36:10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-13 07:36:10</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-13 11:43:26</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2262</v>
+        <v>15083</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4242,7 +4278,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4251,66 +4287,61 @@
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251548</v>
+        <v>244023</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>206.90625</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-13 11:43:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-13 12:03:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-13 12:03:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-13 12:19:47</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>13242</v>
+        <v>997</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4323,71 +4354,66 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250923</v>
+        <v>251061</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>109.46875</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-13 12:19:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-13 12:39:47</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-13 12:39:47</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-14 11:13:10</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>7006</v>
+        <v>23997</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4396,75 +4422,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251225</v>
+        <v>251260</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-14 11:13:10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-14 11:33:10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-14 11:33:10</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-14 14:06:46</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>9369</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4473,75 +4494,70 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
-      </c>
-      <c r="N55" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251227</v>
+        <v>251795</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-14 14:06:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-14 14:26:46</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-14 14:26:46</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-15 11:33:58</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4550,75 +4566,70 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251421</v>
+        <v>251547</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>81.9375</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5244</v>
+        <v>13129</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4627,19 +4638,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39749</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4647,57 +4656,57 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>39762</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>188.640625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4706,17 +4715,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>76</v>
       </c>
       <c r="N58" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4724,18 +4733,18 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="59">
@@ -4744,33 +4753,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>731.71875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4819,33 +4828,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>1916.640625</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-12 08:23:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-12 08:40:46</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-15 13:28:27</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4891,33 +4900,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>168.375</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-15 13:28:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-15 13:58:27</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-15 13:58:27</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-19 09:57:54</t>
+          <t>2025-05-16 08:30:13</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4959,41 +4968,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251566</v>
+        <v>251485</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>107.640625</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-19 09:57:54</t>
+          <t>2025-05-16 08:30:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-19 10:12:54</t>
+          <t>2025-05-16 08:47:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-19 10:12:54</t>
+          <t>2025-05-16 08:47:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-19 12:00:32</t>
+          <t>2025-05-16 09:54:56</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6889</v>
+        <v>4808</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5006,7 +5015,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5019,7 +5028,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5031,41 +5040,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251561</v>
+        <v>251246</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>84.921875</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-19 12:00:32</t>
+          <t>2025-05-16 09:54:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-19 12:17:32</t>
+          <t>2025-05-16 10:11:56</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-19 12:17:32</t>
+          <t>2025-05-16 10:11:56</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-19 13:42:28</t>
+          <t>2025-05-16 13:00:59</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5435</v>
+        <v>12002</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5074,11 +5083,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5091,7 +5100,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5103,41 +5112,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251546</v>
+        <v>251373</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>101.03125</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-19 13:42:28</t>
+          <t>2025-05-16 13:00:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-19 13:57:28</t>
+          <t>2025-05-16 13:17:59</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-19 13:57:28</t>
+          <t>2025-05-16 13:17:59</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-20 07:38:30</t>
+          <t>2025-05-19 09:18:44</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6466</v>
+        <v>17094</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5163,7 +5172,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5175,41 +5184,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251846</v>
+        <v>251564</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>178</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-20 07:38:30</t>
+          <t>2025-05-19 09:18:44</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-20 07:59:30</t>
+          <t>2025-05-19 09:37:44</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-20 07:59:30</t>
+          <t>2025-05-19 09:37:44</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-20 10:57:30</t>
+          <t>2025-05-19 10:16:00</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>11392</v>
+        <v>2717</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5222,7 +5231,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5235,7 +5244,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5247,41 +5256,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251519</v>
+        <v>251626</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>205.859375</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-20 10:57:30</t>
+          <t>2025-05-19 10:16:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-20 11:12:30</t>
+          <t>2025-05-19 10:31:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-20 11:12:30</t>
+          <t>2025-05-19 10:31:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-20 14:38:21</t>
+          <t>2025-05-19 13:27:04</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>13175</v>
+        <v>12500</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5294,7 +5303,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5307,7 +5316,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5319,41 +5328,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251397</v>
+        <v>251761</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>84.921875</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-20 14:38:21</t>
+          <t>2025-05-19 13:27:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-20 14:55:21</t>
+          <t>2025-05-19 13:44:04</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-20 14:55:21</t>
+          <t>2025-05-19 13:44:04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-21 08:20:16</t>
+          <t>2025-05-20 08:51:05</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5435</v>
+        <v>13279</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5366,7 +5375,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5391,41 +5400,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251594</v>
+        <v>251464</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>101.03125</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-21 08:20:16</t>
+          <t>2025-05-20 08:51:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-21 08:37:16</t>
+          <t>2025-05-20 09:06:05</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-21 08:37:16</t>
+          <t>2025-05-20 09:06:05</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-21 10:18:18</t>
+          <t>2025-05-20 10:46:50</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6466</v>
+        <v>7153</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5451,7 +5460,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5463,41 +5472,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>245275</v>
+        <v>251562</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>379.59375</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-21 10:18:18</t>
+          <t>2025-05-20 10:46:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-21 10:53:18</t>
+          <t>2025-05-20 11:05:50</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-21 10:53:18</t>
+          <t>2025-05-20 11:05:50</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-22 09:12:54</t>
+          <t>2025-05-20 13:00:31</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>24294</v>
+        <v>8142</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5506,11 +5515,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5523,7 +5532,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5535,41 +5544,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245350</v>
+        <v>251519</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>437.03125</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-22 09:12:54</t>
+          <t>2025-05-20 13:00:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-22 09:35:54</t>
+          <t>2025-05-20 13:15:31</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-22 09:35:54</t>
+          <t>2025-05-20 13:15:31</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-23 08:52:56</t>
+          <t>2025-05-21 08:21:05</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>27970</v>
+        <v>13175</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5578,11 +5587,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5595,7 +5604,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5607,41 +5616,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250819</v>
+        <v>251467</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>133.234375</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-23 08:52:56</t>
+          <t>2025-05-21 08:21:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-23 09:15:56</t>
+          <t>2025-05-21 08:36:05</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-23 09:15:56</t>
+          <t>2025-05-21 08:36:05</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-23 11:29:10</t>
+          <t>2025-05-21 10:03:46</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8527</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5654,7 +5663,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5667,7 +5676,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5679,41 +5688,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251245</v>
+        <v>251557</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>11.78125</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-23 11:29:10</t>
+          <t>2025-05-21 10:03:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-23 11:44:10</t>
+          <t>2025-05-21 10:18:46</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-23 11:44:10</t>
+          <t>2025-05-21 10:18:46</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-23 11:55:57</t>
+          <t>2025-05-21 11:53:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>754</v>
+        <v>6705</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5722,11 +5731,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5739,7 +5748,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5751,41 +5760,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251247</v>
+        <v>251477</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>420.84375</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-23 11:55:57</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-23 12:10:57</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-23 12:10:57</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-26 11:11:47</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>26934</v>
+        <v>29999</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5794,70 +5803,75 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N73" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251062</v>
+        <v>243569</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>353.5</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-26 11:11:47</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-26 11:26:47</t>
+          <t>2025-05-09 11:34:31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-26 11:26:47</t>
+          <t>2025-05-09 11:34:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-27 09:20:17</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>22624</v>
+        <v>2601</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5866,14 +5880,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5883,7 +5897,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5895,41 +5909,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251466</v>
+        <v>250894</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>80.68115942028986</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-12 14:53:33</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5567</v>
+        <v>44262</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5938,14 +5952,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N75" t="n">
+        <v>39755</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -5955,7 +5972,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5967,41 +5984,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251373</v>
+        <v>251987</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>247.7391304347826</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-12 14:53:33</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:40</t>
+          <t>2025-05-13 07:10:33</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:40</t>
+          <t>2025-05-13 07:10:33</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:25</t>
+          <t>2025-05-21 08:35:43</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>17094</v>
+        <v>210526</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6010,14 +6027,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6027,7 +6044,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6039,41 +6056,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251251</v>
+        <v>243335</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
-        <v>229.8550724637681</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:25</t>
+          <t>2025-05-21 08:35:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:03:25</t>
+          <t>2025-05-21 09:09:43</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:03:25</t>
+          <t>2025-05-21 09:09:43</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:16</t>
+          <t>2025-05-22 08:54:33</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15860</v>
+        <v>33004</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6082,14 +6099,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6099,7 +6116,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6111,41 +6128,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251283</v>
+        <v>251750</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>10.92753623188406</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:16</t>
+          <t>2025-05-22 08:54:33</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:18:16</t>
+          <t>2025-05-22 09:11:33</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:18:16</t>
+          <t>2025-05-22 09:11:33</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:29:12</t>
+          <t>2025-05-22 10:06:21</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>754</v>
+        <v>3891</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6154,14 +6171,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6171,7 +6188,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6183,41 +6200,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251374</v>
+        <v>245623</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>396.2753623188406</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:29:12</t>
+          <t>2025-05-22 10:06:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:12</t>
+          <t>2025-05-22 10:23:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:12</t>
+          <t>2025-05-22 10:23:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:35:28</t>
+          <t>2025-05-23 08:35:27</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>27343</v>
+        <v>26419</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6226,14 +6243,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6243,7 +6260,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6255,41 +6272,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251346</v>
+        <v>245090</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
-        <v>55.92753623188405</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 09:35:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:05:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:05:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:01:24</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3859</v>
+        <v>516718</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6298,14 +6315,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6315,7 +6332,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6327,74 +6344,67 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251706</v>
+        <v>250670</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>50.79365079365079</v>
+        <v>25.62295081967213</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-03 13:06:47</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-03 13:06:47</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-03 13:32:24</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3200</v>
+        <v>1563</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6406,41 +6416,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251050</v>
+        <v>251580</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-03 13:32:24</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-03 14:12:24</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-03 14:12:24</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-04 08:09:40</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6449,75 +6459,70 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251054</v>
+        <v>251283</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-04 08:09:40</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 08:38:40</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 08:38:40</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 08:51:01</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6526,75 +6531,70 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251081</v>
+        <v>251259</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>42.42253521126761</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 08:51:01</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-04 09:22:01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-04 09:22:01</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-04 10:44:00</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3012</v>
+        <v>5000</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6603,77 +6603,70 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251109</v>
+        <v>245350</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D85" t="n">
-        <v>266.5915492957747</v>
+        <v>458.5245901639344</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-04 10:44:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-06-04 11:11:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-06-04 11:11:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-06-05 10:49:31</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18928</v>
+        <v>27970</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6682,11 +6675,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6699,7 +6692,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6711,41 +6704,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251284</v>
+        <v>251466</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>297.0909090909091</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>16340</v>
+        <v>5567</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6754,75 +6747,70 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="N86" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251463</v>
+        <v>251465</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>126.6727272727273</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 08:50:40</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-12 09:20:40</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:45</t>
+          <t>2025-05-12 10:50:54</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6835,7 +6823,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6860,41 +6848,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251462</v>
+        <v>251268</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>34.5</v>
+        <v>47</v>
       </c>
       <c r="D88" t="n">
-        <v>113.2</v>
+        <v>0</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:15</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:15</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:27</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6903,70 +6891,77 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>0</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251520</v>
+        <v>251164</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="D89" t="n">
-        <v>297.0909090909091</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:27</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:57</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:57</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:03</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>16340</v>
+        <v>10000</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6975,70 +6970,75 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
+      <c r="N89" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251259</v>
+        <v>251251</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>90.90909090909091</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:03</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:33</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:33</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:27</t>
+          <t>2025-05-09 09:56:45</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>5000</v>
+        <v>15860</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7047,11 +7047,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M90" t="n">
         <v>70</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">
